--- a/Excel/Monthly_returns.xlsx
+++ b/Excel/Monthly_returns.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannviktor/Python/PycharmProjects/15.451-Proseminar-IM/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haochengtang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DAFC8-380E-9C44-A818-BA5C1E7C0A12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="620" windowWidth="27080" windowHeight="14740"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="27080" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -37,12 +38,15 @@
   <si>
     <t>FCMID5Y</t>
   </si>
+  <si>
+    <t>inflation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +59,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,11 +105,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -99,15 +131,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,16 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D683"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="G684" sqref="G684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +459,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1962</v>
       </c>
@@ -433,8 +476,11 @@
       <c r="D2">
         <v>-1.847374946984625E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -445,8 +491,11 @@
       <c r="D3">
         <v>1.42350788611383E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>3.3333333333334103E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -457,8 +506,11 @@
       <c r="D4">
         <v>9.7939943393259704E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -469,8 +521,11 @@
       <c r="D5">
         <v>1.7565759587425879E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>3.3222591362125353E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>5</v>
@@ -481,8 +536,11 @@
       <c r="D6">
         <v>2.0765985846373709E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -493,8 +551,11 @@
       <c r="D7">
         <v>-1.661652679104041E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>7</v>
@@ -505,8 +566,11 @@
       <c r="D8">
         <v>5.9251541428971468E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>3.3112582781458233E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -517,8 +581,11 @@
       <c r="D9">
         <v>9.4690887843668012E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>9</v>
@@ -529,8 +596,11 @@
       <c r="D10">
         <v>3.1185056470064759E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>3.3003300330032292E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>10</v>
@@ -541,8 +611,11 @@
       <c r="D11">
         <v>3.7973175007064248E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>11</v>
@@ -553,8 +626,11 @@
       <c r="D12">
         <v>5.4707858193446188E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>12</v>
@@ -565,8 +641,11 @@
       <c r="D13">
         <v>4.575193795583363E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1963</v>
       </c>
@@ -579,8 +658,11 @@
       <c r="D14">
         <v>-1.020874086239331E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -591,8 +673,11 @@
       <c r="D15">
         <v>1.567130003239333E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>3</v>
@@ -603,8 +688,11 @@
       <c r="D16">
         <v>1.548265369132858E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>3.2894736842106198E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>4</v>
@@ -615,8 +703,11 @@
       <c r="D17">
         <v>2.3346694021853889E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>5</v>
@@ -627,8 +718,11 @@
       <c r="D18">
         <v>8.3507297596080118E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>6</v>
@@ -639,8 +733,11 @@
       <c r="D19">
         <v>1.1430884993254881E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>3.2786885245901232E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>7</v>
@@ -651,8 +748,11 @@
       <c r="D20">
         <v>7.4333331981425927E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <v>3.2679738562091387E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>8</v>
@@ -663,8 +763,11 @@
       <c r="D21">
         <v>8.6599409451977387E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1">
         <v>9</v>
@@ -675,8 +778,11 @@
       <c r="D22">
         <v>3.0174614297892631E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>10</v>
@@ -687,8 +793,11 @@
       <c r="D23">
         <v>1.817181442592383E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>3.2573289902280145E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
         <v>11</v>
@@ -699,8 +808,11 @@
       <c r="D24">
         <v>4.7321633162735873E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
         <v>12</v>
@@ -711,8 +823,11 @@
       <c r="D25">
         <v>3.6669125389734921E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>3.2467532467532756E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1964</v>
       </c>
@@ -725,8 +840,11 @@
       <c r="D26">
         <v>4.5477857581776556E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1">
         <v>2</v>
@@ -737,8 +855,11 @@
       <c r="D27">
         <v>-7.995095032109465E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>3</v>
@@ -749,8 +870,11 @@
       <c r="D28">
         <v>9.0655740751641937E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>4</v>
@@ -761,8 +885,11 @@
       <c r="D29">
         <v>4.5050461607448137E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1">
         <v>5</v>
@@ -773,8 +900,11 @@
       <c r="D30">
         <v>7.9503708370908689E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>6</v>
@@ -785,8 +915,11 @@
       <c r="D31">
         <v>4.2920343779501834E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>3.2362459546926292E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
         <v>7</v>
@@ -797,8 +930,11 @@
       <c r="D32">
         <v>1.9472364655185009E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>3.225806451612856E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>8</v>
@@ -809,8 +945,11 @@
       <c r="D33">
         <v>2.0627599746218749E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>-3.2154340836013651E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
         <v>9</v>
@@ -821,8 +960,11 @@
       <c r="D34">
         <v>4.2132019228101527E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>3.225806451612856E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>10</v>
@@ -833,8 +975,11 @@
       <c r="D35">
         <v>3.158546334894674E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
         <v>11</v>
@@ -845,8 +990,11 @@
       <c r="D36">
         <v>-2.0322801770829169E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="4">
+        <v>3.215434083601254E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>12</v>
@@ -857,8 +1005,11 @@
       <c r="D37">
         <v>3.709415643369322E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1965</v>
       </c>
@@ -871,8 +1022,11 @@
       <c r="D38">
         <v>3.8651031923691999E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
         <v>2</v>
@@ -883,8 +1037,11 @@
       <c r="D39">
         <v>1.0037621928417641E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1">
         <v>3</v>
@@ -895,8 +1052,11 @@
       <c r="D40">
         <v>4.2112330660457747E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>3.2051282051281937E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
         <v>4</v>
@@ -907,8 +1067,11 @@
       <c r="D41">
         <v>2.4807337345265149E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="4">
+        <v>3.1948881789136685E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1">
         <v>5</v>
@@ -919,8 +1082,11 @@
       <c r="D42">
         <v>3.7827060915997962E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <v>6</v>
@@ -931,8 +1097,11 @@
       <c r="D43">
         <v>3.9668602122793052E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="4">
+        <v>6.3694267515923553E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
         <v>7</v>
@@ -943,8 +1112,11 @@
       <c r="D44">
         <v>1.591536329924031E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
         <v>8</v>
@@ -955,8 +1127,11 @@
       <c r="D45">
         <v>1.777121245548975E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1">
         <v>9</v>
@@ -967,8 +1142,11 @@
       <c r="D46">
         <v>-1.451112373200221E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1">
         <v>10</v>
@@ -979,8 +1157,11 @@
       <c r="D47">
         <v>2.9351773184824642E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="4">
+        <v>3.1645569620253333E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1">
         <v>11</v>
@@ -991,8 +1172,11 @@
       <c r="D48">
         <v>7.9049901909819119E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1">
         <v>12</v>
@@ -1003,8 +1187,11 @@
       <c r="D49">
         <v>-1.3484739884480811E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>3.154574132492094E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1966</v>
       </c>
@@ -1017,8 +1204,11 @@
       <c r="D50">
         <v>-2.9481478904405157E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1">
         <v>2</v>
@@ -1029,8 +1219,11 @@
       <c r="D51">
         <v>1.7549606540097299E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>6.2893081761006275E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="1">
         <v>3</v>
@@ -1041,8 +1234,11 @@
       <c r="D52">
         <v>1.1401568362594129E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="4">
+        <v>3.1250000000000444E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1">
         <v>4</v>
@@ -1053,8 +1249,11 @@
       <c r="D53">
         <v>3.530389367538138E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="4">
+        <v>6.230529595015355E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1">
         <v>5</v>
@@ -1065,8 +1264,11 @@
       <c r="D54">
         <v>-2.3418702468366789E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1">
         <v>6</v>
@@ -1077,8 +1279,11 @@
       <c r="D55">
         <v>1.037743010935337E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="4">
+        <v>3.0959752321981782E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1">
         <v>7</v>
@@ -1089,8 +1294,11 @@
       <c r="D56">
         <v>-3.5165649159042299E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="4">
+        <v>3.0864197530864335E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <v>8</v>
@@ -1101,8 +1309,11 @@
       <c r="D57">
         <v>-1.207781201046206E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="4">
+        <v>6.1538461538461764E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1">
         <v>9</v>
@@ -1113,8 +1324,11 @@
       <c r="D58">
         <v>1.9186368545092071E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1">
         <v>10</v>
@@ -1125,8 +1339,11 @@
       <c r="D59">
         <v>9.6441974867906913E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="4">
+        <v>6.1162079510701517E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1">
         <v>11</v>
@@ -1137,8 +1354,11 @@
       <c r="D60">
         <v>1.8431175325727129E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1">
         <v>12</v>
@@ -1149,8 +1369,11 @@
       <c r="D61">
         <v>2.5089798134503131E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1967</v>
       </c>
@@ -1163,8 +1386,11 @@
       <c r="D62">
         <v>9.8458926003167826E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1">
         <v>2</v>
@@ -1175,8 +1401,11 @@
       <c r="D63">
         <v>-1.391098870595218E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1">
         <v>3</v>
@@ -1187,8 +1416,11 @@
       <c r="D64">
         <v>1.885959913380629E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="4">
+        <v>3.0395136778116338E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1">
         <v>4</v>
@@ -1199,8 +1431,11 @@
       <c r="D65">
         <v>-1.0361055751582519E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="4">
+        <v>3.0303030303031608E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1">
         <v>5</v>
@@ -1211,8 +1446,11 @@
       <c r="D66">
         <v>4.0557754502345321E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="4">
+        <v>3.0211480362538623E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1">
         <v>6</v>
@@ -1223,8 +1461,11 @@
       <c r="D67">
         <v>-2.2409080715837668E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="4">
+        <v>3.0120481927708997E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1">
         <v>7</v>
@@ -1235,8 +1476,11 @@
       <c r="D68">
         <v>1.5131323574092749E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="4">
+        <v>3.0030030030030463E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="1">
         <v>8</v>
@@ -1247,8 +1491,11 @@
       <c r="D69">
         <v>-4.6661413118306494E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="4">
+        <v>2.9940119760478723E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="1">
         <v>9</v>
@@ -1259,8 +1506,11 @@
       <c r="D70">
         <v>2.6351427506935308E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>2.9850746268658135E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <v>10</v>
@@ -1271,8 +1521,11 @@
       <c r="D71">
         <v>-9.4285759471347524E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>2.9761904761904656E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="1">
         <v>11</v>
@@ -1283,8 +1536,11 @@
       <c r="D72">
         <v>2.7232637587350241E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="4">
+        <v>2.9673590504448732E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="1">
         <v>12</v>
@@ -1295,8 +1551,11 @@
       <c r="D73">
         <v>4.3164297023573278E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="4">
+        <v>2.9585798816569309E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1968</v>
       </c>
@@ -1309,8 +1568,11 @@
       <c r="D74">
         <v>1.4206360175381509E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="4">
+        <v>5.8997050147493457E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="1">
         <v>2</v>
@@ -1321,8 +1583,11 @@
       <c r="D75">
         <v>3.8913292412713E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="4">
+        <v>2.9325513196480912E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="1">
         <v>3</v>
@@ -1333,8 +1598,11 @@
       <c r="D76">
         <v>-3.632674552697055E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="4">
+        <v>2.9239766081869956E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="1">
         <v>4</v>
@@ -1345,8 +1613,11 @@
       <c r="D77">
         <v>-3.762925517785749E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="4">
+        <v>2.9154518950438302E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="1">
         <v>5</v>
@@ -1357,8 +1628,11 @@
       <c r="D78">
         <v>4.4353731168975744E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="4">
+        <v>2.9069767441860517E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="1">
         <v>6</v>
@@ -1369,8 +1643,11 @@
       <c r="D79">
         <v>1.50102954619419E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <v>5.7971014492754769E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="1">
         <v>7</v>
@@ -1381,8 +1658,11 @@
       <c r="D80">
         <v>1.9853507748915158E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="4">
+        <v>5.7636887608067955E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="1">
         <v>8</v>
@@ -1393,8 +1673,11 @@
       <c r="D81">
         <v>7.8983499457361238E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="4">
+        <v>2.8653295128939771E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="1">
         <v>9</v>
@@ -1405,8 +1688,11 @@
       <c r="D82">
         <v>5.6747723130280122E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>2.8571428571428914E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="1">
         <v>10</v>
@@ -1417,8 +1703,11 @@
       <c r="D83">
         <v>8.9495988207604867E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
+        <v>5.6980056980056037E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="1">
         <v>11</v>
@@ -1429,8 +1718,11 @@
       <c r="D84">
         <v>-2.5009834820827249E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="4">
+        <v>2.8328611898016387E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <v>12</v>
@@ -1441,8 +1733,11 @@
       <c r="D85">
         <v>-2.4162360500490521E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="4">
+        <v>2.8248587570622874E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1969</v>
       </c>
@@ -1455,8 +1750,11 @@
       <c r="D86">
         <v>6.2211856854714987E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="4">
+        <v>2.8169014084507005E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="1">
         <v>2</v>
@@ -1467,8 +1765,11 @@
       <c r="D87">
         <v>-1.3188169689231409E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="4">
+        <v>5.6179775280897903E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="1">
         <v>3</v>
@@ -1479,8 +1780,11 @@
       <c r="D88">
         <v>8.6401002582770815E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="4">
+        <v>8.379888268156499E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="1">
         <v>4</v>
@@ -1491,8 +1795,11 @@
       <c r="D89">
         <v>5.2021491148499348E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="4">
+        <v>5.5401662049860967E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="1">
         <v>5</v>
@@ -1503,8 +1810,11 @@
       <c r="D90">
         <v>-8.3610855419180771E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="4">
+        <v>2.7548209366392573E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="1">
         <v>6</v>
@@ -1515,8 +1825,11 @@
       <c r="D91">
         <v>-6.2913064876899509E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>5.494505494505475E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1">
         <v>7</v>
@@ -1527,8 +1840,11 @@
       <c r="D92">
         <v>5.8759331849639806E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="4">
+        <v>5.4644808743167239E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1">
         <v>8</v>
@@ -1539,8 +1855,11 @@
       <c r="D93">
         <v>-7.4376471673081993E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="4">
+        <v>5.4347826086957873E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="1">
         <v>9</v>
@@ -1551,8 +1870,11 @@
       <c r="D94">
         <v>-2.9980780986744761E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>2.7027027027026751E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1">
         <v>10</v>
@@ -1563,8 +1885,11 @@
       <c r="D95">
         <v>3.1557070731702913E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="4">
+        <v>5.3908355795146967E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="1">
         <v>11</v>
@@ -1575,8 +1900,11 @@
       <c r="D96">
         <v>-6.4582184604095776E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="4">
+        <v>5.3619302949061698E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="1">
         <v>12</v>
@@ -1587,8 +1915,11 @@
       <c r="D97">
         <v>-1.6902873854612661E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>5.3333333333334121E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1970</v>
       </c>
@@ -1601,8 +1932,11 @@
       <c r="D98">
         <v>4.5824774605383234E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="4">
+        <v>2.6525198938991412E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <v>2</v>
@@ -1613,8 +1947,11 @@
       <c r="D99">
         <v>4.9897814555875233E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="4">
+        <v>5.2910052910053462E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="1">
         <v>3</v>
@@ -1625,8 +1962,11 @@
       <c r="D100">
         <v>9.1955047092543794E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="4">
+        <v>5.2631578947368585E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="1">
         <v>4</v>
@@ -1637,8 +1977,11 @@
       <c r="D101">
         <v>-2.1980092404008559E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="4">
+        <v>7.8534031413610705E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="1">
         <v>5</v>
@@ -1649,8 +1992,11 @@
       <c r="D102">
         <v>1.11184196926994E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>2.5974025974027093E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="1">
         <v>6</v>
@@ -1661,8 +2007,11 @@
       <c r="D103">
         <v>8.8300685187218571E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="4">
+        <v>5.1813471502588637E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="1">
         <v>7</v>
@@ -1673,8 +2022,11 @@
       <c r="D104">
         <v>1.347167435183429E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="4">
+        <v>5.1546391752577136E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="1">
         <v>8</v>
@@ -1685,8 +2037,11 @@
       <c r="D105">
         <v>1.167079218166857E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="1">
         <v>9</v>
@@ -1697,8 +2052,11 @@
       <c r="D106">
         <v>1.705151066742501E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <v>5.12820512820511E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="1">
         <v>10</v>
@@ -1709,8 +2067,11 @@
       <c r="D107">
         <v>1.104082506051631E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="4">
+        <v>5.1020408163264808E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="1">
         <v>11</v>
@@ -1721,8 +2082,11 @@
       <c r="D108">
         <v>5.2261043743716859E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="4">
+        <v>5.0761421319798217E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="1">
         <v>12</v>
@@ -1733,8 +2097,11 @@
       <c r="D109">
         <v>5.173760463927723E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="4">
+        <v>5.050505050504972E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1971</v>
       </c>
@@ -1747,8 +2114,11 @@
       <c r="D110">
         <v>1.38495511341947E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="1">
         <v>2</v>
@@ -1759,8 +2129,11 @@
       <c r="D111">
         <v>2.4725106931861491E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="4">
+        <v>2.5125628140703071E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="1">
         <v>3</v>
@@ -1771,8 +2144,11 @@
       <c r="D112">
         <v>1.6067565551371291E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="4">
+        <v>2.5062656641603454E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <v>4</v>
@@ -1783,8 +2159,11 @@
       <c r="D113">
         <v>-3.9384713914287668E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="4">
+        <v>2.4999999999999467E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="1">
         <v>5</v>
@@ -1795,8 +2174,11 @@
       <c r="D114">
         <v>-2.092524782260856E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="4">
+        <v>4.9875311720697368E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="1">
         <v>6</v>
@@ -1807,8 +2189,11 @@
       <c r="D115">
         <v>-1.9320816970368561E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="4">
+        <v>7.4441687344914964E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="1">
         <v>7</v>
@@ -1819,8 +2204,11 @@
       <c r="D116">
         <v>1.3896644380970581E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="4">
+        <v>2.4630541871921707E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="1">
         <v>8</v>
@@ -1831,8 +2219,11 @@
       <c r="D117">
         <v>4.1351571650623357E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="4">
+        <v>2.4570024570023108E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="1">
         <v>9</v>
@@ -1843,8 +2234,11 @@
       <c r="D118">
         <v>5.4101683481018979E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="1">
         <v>10</v>
@@ -1855,8 +2249,11 @@
       <c r="D119">
         <v>1.6634659651740141E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="4">
+        <v>2.450980392156854E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="1">
         <v>11</v>
@@ -1867,8 +2264,11 @@
       <c r="D120">
         <v>2.4446283403078261E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="1">
         <v>12</v>
@@ -1879,8 +2279,11 @@
       <c r="D121">
         <v>1.8537900270211991E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="4">
+        <v>4.8899755501223829E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>1972</v>
       </c>
@@ -1893,8 +2296,11 @@
       <c r="D122">
         <v>-6.0744776683515798E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="1">
         <v>2</v>
@@ -1905,8 +2311,11 @@
       <c r="D123">
         <v>7.8436255678019876E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="4">
+        <v>4.8661800486617945E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="1">
         <v>3</v>
@@ -1917,8 +2326,11 @@
       <c r="D124">
         <v>-1.259595233467853E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="4">
+        <v>2.421307506053294E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="1">
         <v>4</v>
@@ -1929,8 +2341,11 @@
       <c r="D125">
         <v>1.451727111542611E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="4">
+        <v>2.4154589371980784E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="1">
         <v>5</v>
@@ -1941,8 +2356,11 @@
       <c r="D126">
         <v>9.0734453647124923E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="4">
+        <v>2.4096385542169418E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <v>6</v>
@@ -1953,8 +2371,11 @@
       <c r="D127">
         <v>-4.0036101994116334E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="4">
+        <v>2.4038461538462563E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="1">
         <v>7</v>
@@ -1965,8 +2386,11 @@
       <c r="D128">
         <v>6.1536357496078664E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="4">
+        <v>4.7961630695443347E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="1">
         <v>8</v>
@@ -1977,8 +2401,11 @@
       <c r="D129">
         <v>-4.3379837419250363E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="4">
+        <v>2.3866348448686736E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="1">
         <v>9</v>
@@ -1989,8 +2416,11 @@
       <c r="D130">
         <v>6.4828446602830251E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="4">
+        <v>2.3809523809523725E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="1">
         <v>10</v>
@@ -2001,8 +2431,11 @@
       <c r="D131">
         <v>4.2943964839169879E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="4">
+        <v>4.7505938242278223E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="1">
         <v>11</v>
@@ -2013,8 +2446,11 @@
       <c r="D132">
         <v>8.7765698156874357E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="4">
+        <v>2.3640661938535423E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="1">
         <v>12</v>
@@ -2025,8 +2461,11 @@
       <c r="D133">
         <v>-1.245199013306019E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="4">
+        <v>2.3584905660378741E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1973</v>
       </c>
@@ -2039,8 +2478,11 @@
       <c r="D134">
         <v>-2.387405992759003E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="4">
+        <v>2.3529411764706687E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="1">
         <v>2</v>
@@ -2051,8 +2493,11 @@
       <c r="D135">
         <v>-7.5008497978754311E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="4">
+        <v>7.0422535211267512E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="1">
         <v>3</v>
@@ -2063,8 +2508,11 @@
       <c r="D136">
         <v>2.09137573044381E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="4">
+        <v>9.3240093240092303E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="1">
         <v>4</v>
@@ -2075,8 +2523,11 @@
       <c r="D137">
         <v>9.3928844060719562E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="4">
+        <v>6.9284064665127154E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="1">
         <v>5</v>
@@ -2087,8 +2538,11 @@
       <c r="D138">
         <v>3.4347541378791668E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="4">
+        <v>6.8807339449541427E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="1">
         <v>6</v>
@@ -2099,8 +2553,11 @@
       <c r="D139">
         <v>2.3504107783310499E-4</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="4">
+        <v>6.8337129840547739E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="1">
         <v>7</v>
@@ -2111,8 +2568,11 @@
       <c r="D140">
         <v>-3.363524701825233E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="4">
+        <v>2.2624434389137971E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="1">
         <v>8</v>
@@ -2123,8 +2583,11 @@
       <c r="D141">
         <v>2.8009443735656111E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="4">
+        <v>1.8058690744921169E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="1">
         <v>9</v>
@@ -2135,8 +2598,11 @@
       <c r="D142">
         <v>3.1734872535405037E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="4">
+        <v>2.2172949002217113E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="1">
         <v>10</v>
@@ -2147,8 +2613,11 @@
       <c r="D143">
         <v>2.4651561231496789E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="4">
+        <v>8.8495575221239076E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="1">
         <v>11</v>
@@ -2159,8 +2628,11 @@
       <c r="D144">
         <v>6.8928809492871902E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="4">
+        <v>6.5789473684210176E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="1">
         <v>12</v>
@@ -2171,8 +2643,11 @@
       <c r="D145">
         <v>3.3550037879819389E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="4">
+        <v>6.5359477124184995E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1974</v>
       </c>
@@ -2185,8 +2660,11 @@
       <c r="D146">
         <v>2.3607970529941971E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="4">
+        <v>8.6580086580085869E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="1">
         <v>2</v>
@@ -2197,8 +2675,11 @@
       <c r="D147">
         <v>2.467799685891078E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="4">
+        <v>1.2875536480686733E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="1">
         <v>3</v>
@@ -2209,8 +2690,11 @@
       <c r="D148">
         <v>-2.192369275406365E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="4">
+        <v>1.2711864406779627E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="1">
         <v>4</v>
@@ -2221,8 +2705,11 @@
       <c r="D149">
         <v>-1.591021078480849E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="4">
+        <v>4.1841004184099972E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="1">
         <v>5</v>
@@ -2233,8 +2720,11 @@
       <c r="D150">
         <v>1.2375291250192429E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="4">
+        <v>1.2499999999999956E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="1">
         <v>6</v>
@@ -2245,8 +2735,11 @@
       <c r="D151">
         <v>-5.0315767604218204E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="4">
+        <v>8.2304526748970819E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="1">
         <v>7</v>
@@ -2257,8 +2750,11 @@
       <c r="D152">
         <v>2.1636183206446519E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="4">
+        <v>8.1632653061223248E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="1">
         <v>8</v>
@@ -2269,8 +2765,11 @@
       <c r="D153">
         <v>1.770561186978229E-4</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="4">
+        <v>1.2145748987854255E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="1">
         <v>9</v>
@@ -2281,8 +2780,11 @@
       <c r="D154">
         <v>3.1872525980058207E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="4">
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="1">
         <v>10</v>
@@ -2293,8 +2795,11 @@
       <c r="D155">
         <v>1.0150072512377029E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="4">
+        <v>9.8814229249011287E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="1">
         <v>11</v>
@@ -2305,8 +2810,11 @@
       <c r="D156">
         <v>2.261039549317382E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="4">
+        <v>7.8277886497064575E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="1">
         <v>12</v>
@@ -2317,8 +2825,11 @@
       <c r="D157">
         <v>1.4586886163981211E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="4">
+        <v>7.7669902912620437E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1975</v>
       </c>
@@ -2331,8 +2842,11 @@
       <c r="D158">
         <v>6.6987206750285166E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="4">
+        <v>3.8535645472062008E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="1">
         <v>2</v>
@@ -2343,8 +2857,11 @@
       <c r="D159">
         <v>1.558488463048025E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="4">
+        <v>7.6775431861804133E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="1">
         <v>3</v>
@@ -2355,8 +2872,11 @@
       <c r="D160">
         <v>-9.6230957760448689E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="4">
+        <v>3.8095238095239292E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="1">
         <v>4</v>
@@ -2367,8 +2887,11 @@
       <c r="D161">
         <v>-1.7913879125108119E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="4">
+        <v>3.7950664136621182E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="1">
         <v>5</v>
@@ -2379,8 +2902,11 @@
       <c r="D162">
         <v>2.7048539358601711E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="4">
+        <v>5.6710775047259521E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="1">
         <v>6</v>
@@ -2391,8 +2917,11 @@
       <c r="D163">
         <v>-2.2369970946999559E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="4">
+        <v>7.5187969924812581E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="1">
         <v>7</v>
@@ -2403,8 +2932,11 @@
       <c r="D164">
         <v>-3.375872368466521E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="4">
+        <v>1.1194029850746245E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="1">
         <v>8</v>
@@ -2415,8 +2947,11 @@
       <c r="D165">
         <v>2.8830583931379432E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="4">
+        <v>1.8450184501843658E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="1">
         <v>9</v>
@@ -2427,8 +2962,11 @@
       <c r="D166">
         <v>-3.2536655021937811E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="4">
+        <v>5.5248618784531356E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="1">
         <v>10</v>
@@ -2439,8 +2977,11 @@
       <c r="D167">
         <v>3.426123236227905E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="4">
+        <v>5.494505494505475E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="1">
         <v>11</v>
@@ -2451,8 +2992,11 @@
       <c r="D168">
         <v>-4.2839008826502014E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="4">
+        <v>7.2859744990891873E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="1">
         <v>12</v>
@@ -2463,8 +3007,11 @@
       <c r="D169">
         <v>2.2211355102846771E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="4">
+        <v>3.6166365280290158E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1976</v>
       </c>
@@ -2477,8 +3024,11 @@
       <c r="D170">
         <v>8.9291922693213715E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="4">
+        <v>1.8018018018017834E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="1">
         <v>2</v>
@@ -2489,8 +3039,11 @@
       <c r="D171">
         <v>4.8603576341570646E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="4">
+        <v>3.597122302158251E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="1">
         <v>3</v>
@@ -2501,8 +3054,11 @@
       <c r="D172">
         <v>8.7114568549045285E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="4">
+        <v>1.7921146953405742E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="1">
         <v>4</v>
@@ -2513,8 +3069,11 @@
       <c r="D173">
         <v>7.945149626983887E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="4">
+        <v>3.5778175313059268E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="1">
         <v>5</v>
@@ -2525,8 +3084,11 @@
       <c r="D174">
         <v>-1.293924502458714E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="4">
+        <v>7.1301247771835552E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="1">
         <v>6</v>
@@ -2537,8 +3099,11 @@
       <c r="D175">
         <v>1.4278915803972451E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="4">
+        <v>5.3097345132742113E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="1">
         <v>7</v>
@@ -2549,8 +3114,11 @@
       <c r="D176">
         <v>1.0581211303439669E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="4">
+        <v>5.2816901408452299E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="1">
         <v>8</v>
@@ -2561,8 +3129,11 @@
       <c r="D177">
         <v>1.8248798579825629E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="4">
+        <v>5.2539404553415547E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="1">
         <v>9</v>
@@ -2573,8 +3144,11 @@
       <c r="D178">
         <v>1.0339098202804761E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="4">
+        <v>3.4843205574912606E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="1">
         <v>10</v>
@@ -2585,8 +3159,11 @@
       <c r="D179">
         <v>1.6574551119295251E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="4">
+        <v>5.2083333333332593E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="1">
         <v>11</v>
@@ -2597,8 +3174,11 @@
       <c r="D180">
         <v>3.8373604214993098E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="4">
+        <v>1.7271157167531026E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="1">
         <v>12</v>
@@ -2609,8 +3189,11 @@
       <c r="D181">
         <v>1.640976187499551E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="4">
+        <v>3.4482758620690834E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>1977</v>
       </c>
@@ -2623,8 +3206,11 @@
       <c r="D182">
         <v>-2.3952243990849189E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="4">
+        <v>5.1546391752577136E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="1">
         <v>2</v>
@@ -2635,8 +3221,11 @@
       <c r="D183">
         <v>-1.146826860556164E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="4">
+        <v>1.025641025641022E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="1">
         <v>3</v>
@@ -2647,8 +3236,11 @@
       <c r="D184">
         <v>6.8136394215527318E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="4">
+        <v>6.7681895093061328E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="1">
         <v>4</v>
@@ -2659,8 +3251,11 @@
       <c r="D185">
         <v>7.3942935326473469E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="4">
+        <v>8.4033613445377853E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="1">
         <v>5</v>
@@ -2671,8 +3266,11 @@
       <c r="D186">
         <v>7.2521279633768259E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="4">
+        <v>4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="1">
         <v>6</v>
@@ -2683,8 +3281,11 @@
       <c r="D187">
         <v>1.2016523084427111E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="4">
+        <v>6.6334991708127955E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="1">
         <v>7</v>
@@ -2695,8 +3296,11 @@
       <c r="D188">
         <v>-9.3171253940896644E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="4">
+        <v>4.9423393739702615E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="1">
         <v>8</v>
@@ -2707,8 +3311,11 @@
       <c r="D189">
         <v>9.1312934562635516E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="4">
+        <v>3.2786885245901232E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1">
         <v>9</v>
@@ -2719,8 +3326,11 @@
       <c r="D190">
         <v>-1.370378907429992E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="4">
+        <v>3.2679738562091387E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="1">
         <v>10</v>
@@ -2731,8 +3341,11 @@
       <c r="D191">
         <v>-7.5345090046689423E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="4">
+        <v>3.2573289902280145E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="1">
         <v>11</v>
@@ -2743,8 +3356,11 @@
       <c r="D192">
         <v>9.2334941032279072E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="4">
+        <v>4.8701298701299134E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="1">
         <v>12</v>
@@ -2755,8 +3371,11 @@
       <c r="D193">
         <v>-1.3647190345542871E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="4">
+        <v>3.231017770597866E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>1978</v>
       </c>
@@ -2769,8 +3388,11 @@
       <c r="D194">
         <v>-6.7975383777655219E-4</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="4">
+        <v>6.441223832528209E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="1">
         <v>2</v>
@@ -2781,8 +3403,11 @@
       <c r="D195">
         <v>2.0944423296485331E-4</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="4">
+        <v>6.3999999999999613E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="1">
         <v>3</v>
@@ -2793,8 +3418,11 @@
       <c r="D196">
         <v>1.9782764287377642E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="4">
+        <v>7.9491255961843255E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="1">
         <v>4</v>
@@ -2805,8 +3433,11 @@
       <c r="D197">
         <v>1.201370125338647E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="4">
+        <v>7.8864353312302349E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="1">
         <v>5</v>
@@ -2817,8 +3448,11 @@
       <c r="D198">
         <v>-3.9372447590213809E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="4">
+        <v>9.3896713615022609E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="1">
         <v>6</v>
@@ -2829,8 +3463,11 @@
       <c r="D199">
         <v>-2.0168125123566469E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="4">
+        <v>1.0852713178294726E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="1">
         <v>7</v>
@@ -2841,8 +3478,11 @@
       <c r="D200">
         <v>9.1436888628821864E-3</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="4">
+        <v>7.6687116564417845E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="1">
         <v>8</v>
@@ -2853,8 +3493,11 @@
       <c r="D201">
         <v>7.8228793831130981E-3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="4">
+        <v>4.5662100456620447E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="1">
         <v>9</v>
@@ -2865,8 +3508,11 @@
       <c r="D202">
         <v>3.5200850923901442E-3</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="4">
+        <v>7.575757575757569E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="1">
         <v>10</v>
@@ -2877,8 +3523,11 @@
       <c r="D203">
         <v>-1.7952725616547319E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="4">
+        <v>9.0225563909773765E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="1">
         <v>11</v>
@@ -2889,8 +3538,11 @@
       <c r="D204">
         <v>1.5897046876008319E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="4">
+        <v>4.4709388971686526E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="1">
         <v>12</v>
@@ -2901,8 +3553,11 @@
       <c r="D205">
         <v>-8.313560424744704E-3</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" s="4">
+        <v>4.4510385756675319E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>1979</v>
       </c>
@@ -2915,8 +3570,11 @@
       <c r="D206">
         <v>2.1728024056047731E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" s="4">
+        <v>8.8626292466764678E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="1">
         <v>2</v>
@@ -2927,8 +3585,11 @@
       <c r="D207">
         <v>-7.2409383280745967E-3</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="4">
+        <v>1.171303074670571E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="1">
         <v>3</v>
@@ -2939,8 +3600,11 @@
       <c r="D208">
         <v>1.082183139404283E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="4">
+        <v>1.013024602026058E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="1">
         <v>4</v>
@@ -2951,8 +3615,11 @@
       <c r="D209">
         <v>1.4729260016620031E-3</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="4">
+        <v>1.1461318051575908E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="1">
         <v>5</v>
@@ -2963,8 +3630,11 @@
       <c r="D210">
         <v>1.8977624336032541E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="4">
+        <v>1.2747875354107707E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="1">
         <v>6</v>
@@ -2975,8 +3645,11 @@
       <c r="D211">
         <v>1.8848615263419941E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="4">
+        <v>1.118881118881121E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="1">
         <v>7</v>
@@ -2987,8 +3660,11 @@
       <c r="D212">
         <v>-2.2997862527162419E-3</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="4">
+        <v>1.1065006915629283E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="1">
         <v>8</v>
@@ -2999,8 +3675,11 @@
       <c r="D213">
         <v>-6.434394463141562E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="4">
+        <v>9.5759233926129284E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="1">
         <v>9</v>
@@ -3011,8 +3690,11 @@
       <c r="D214">
         <v>2.6150232439436849E-3</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="4">
+        <v>1.084010840108407E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="1">
         <v>10</v>
@@ -3023,8 +3705,11 @@
       <c r="D215">
         <v>-5.137392701865158E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="4">
+        <v>8.0428954423592547E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="1">
         <v>11</v>
@@ -3035,8 +3720,11 @@
       <c r="D216">
         <v>3.7824569138262543E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="4">
+        <v>9.3085106382979621E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="1">
         <v>12</v>
@@ -3047,8 +3735,11 @@
       <c r="D217">
         <v>1.1536605605267709E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="4">
+        <v>1.0540184453227797E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>1980</v>
       </c>
@@ -3061,8 +3752,11 @@
       <c r="D218">
         <v>-1.790461788717115E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="4">
+        <v>1.4341590612777066E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="1">
         <v>2</v>
@@ -3073,8 +3767,11 @@
       <c r="D219">
         <v>-8.0205199884547246E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="4">
+        <v>1.413881748071999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="1">
         <v>3</v>
@@ -3085,8 +3782,11 @@
       <c r="D220">
         <v>1.7497000680900831E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="4">
+        <v>1.5209125475285079E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="1">
         <v>4</v>
@@ -3097,8 +3797,11 @@
       <c r="D221">
         <v>0.1016021278824816</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="4">
+        <v>1.1235955056179803E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="1">
         <v>5</v>
@@ -3109,8 +3812,11 @@
       <c r="D222">
         <v>4.4758252976682081E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="4">
+        <v>9.8765432098764094E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="1">
         <v>6</v>
@@ -3121,8 +3827,11 @@
       <c r="D223">
         <v>2.3015359077623029E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" s="4">
+        <v>1.1002444987775029E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="1">
         <v>7</v>
@@ -3133,8 +3842,11 @@
       <c r="D224">
         <v>-1.4977316738770089E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="1">
         <v>8</v>
@@ -3145,8 +3857,11 @@
       <c r="D225">
         <v>-5.0783277504782377E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="4">
+        <v>7.2551390568318386E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="1">
         <v>9</v>
@@ -3157,8 +3872,11 @@
       <c r="D226">
         <v>2.0331554723915552E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" s="4">
+        <v>8.4033613445377853E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="1">
         <v>10</v>
@@ -3169,8 +3887,11 @@
       <c r="D227">
         <v>-1.9549965558704221E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="4">
+        <v>9.52380952380949E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="1">
         <v>11</v>
@@ -3181,8 +3902,11 @@
       <c r="D228">
         <v>-5.2779290672057121E-3</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" s="4">
+        <v>8.2547169811320042E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="1">
         <v>12</v>
@@ -3193,8 +3917,11 @@
       <c r="D229">
         <v>3.0654477230864209E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" s="4">
+        <v>9.3567251461987855E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>1981</v>
       </c>
@@ -3207,8 +3934,11 @@
       <c r="D230">
         <v>2.8563368748115562E-3</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" s="4">
+        <v>8.1112398609501923E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="1">
         <v>2</v>
@@ -3219,8 +3949,11 @@
       <c r="D231">
         <v>-2.665082590991948E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" s="4">
+        <v>1.0344827586207028E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="1">
         <v>3</v>
@@ -3231,8 +3964,11 @@
       <c r="D232">
         <v>2.3597023346590099E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" s="4">
+        <v>6.8259385665527805E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="1">
         <v>4</v>
@@ -3243,8 +3979,11 @@
       <c r="D233">
         <v>-2.6072954894746099E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" s="4">
+        <v>6.7796610169490457E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="1">
         <v>5</v>
@@ -3255,8 +3994,11 @@
       <c r="D234">
         <v>2.9231899025544981E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" s="4">
+        <v>7.8563411896745983E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="1">
         <v>6</v>
@@ -3267,8 +4009,11 @@
       <c r="D235">
         <v>2.818629097044546E-3</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" s="4">
+        <v>8.9086859688196629E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="1">
         <v>7</v>
@@ -3279,8 +4024,11 @@
       <c r="D236">
         <v>-2.082789645109373E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" s="4">
+        <v>1.1037527593819041E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="1">
         <v>8</v>
@@ -3291,8 +4039,11 @@
       <c r="D237">
         <v>-1.6478987415796141E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" s="4">
+        <v>7.6419213973799582E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="1">
         <v>9</v>
@@ -3303,8 +4054,11 @@
       <c r="D238">
         <v>7.4387268385933602E-3</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" s="4">
+        <v>9.750812567713929E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="1">
         <v>10</v>
@@ -3315,8 +4069,11 @@
       <c r="D239">
         <v>6.0187336909586941E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" s="4">
+        <v>2.1459227467810482E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="1">
         <v>11</v>
@@ -3327,8 +4084,11 @@
       <c r="D240">
         <v>8.5964952324430327E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" s="4">
+        <v>3.2119914346895317E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="1">
         <v>12</v>
@@ -3339,8 +4099,11 @@
       <c r="D241">
         <v>-2.9082332443971421E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" s="4">
+        <v>3.2017075773744796E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>1982</v>
       </c>
@@ -3353,8 +4116,11 @@
       <c r="D242">
         <v>2.0450351262547429E-3</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" s="4">
+        <v>3.1914893617019935E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="1">
         <v>2</v>
@@ -3365,8 +4131,11 @@
       <c r="D243">
         <v>1.6909117425845079E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="4">
+        <v>3.1813361611876534E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="1">
         <v>3</v>
@@ -3377,8 +4146,11 @@
       <c r="D244">
         <v>2.662987111421827E-3</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" s="4">
+        <v>-1.0570824524311906E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="1">
         <v>4</v>
@@ -3389,8 +4161,11 @@
       <c r="D245">
         <v>2.8366934343247201E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" s="4">
+        <v>4.2328042328043658E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="1">
         <v>5</v>
@@ -3401,8 +4176,11 @@
       <c r="D246">
         <v>1.5970605535530081E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="4">
+        <v>9.4836670179134774E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="1">
         <v>6</v>
@@ -3413,8 +4191,11 @@
       <c r="D247">
         <v>-1.7633068640899301E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="4">
+        <v>1.2526096033403045E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="1">
         <v>7</v>
@@ -3425,8 +4206,11 @@
       <c r="D248">
         <v>4.3605362066283848E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" s="4">
+        <v>5.1546391752577136E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="1">
         <v>8</v>
@@ -3437,8 +4221,11 @@
       <c r="D249">
         <v>4.7807776506016662E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" s="4">
+        <v>2.0512820512821328E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="1">
         <v>9</v>
@@ -3449,8 +4236,11 @@
       <c r="D250">
         <v>4.5155626316928738E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" s="4">
+        <v>2.0470829068577334E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="1">
         <v>10</v>
@@ -3461,8 +4251,11 @@
       <c r="D251">
         <v>5.0591457159806001E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" s="4">
+        <v>3.0643513789581078E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="1">
         <v>11</v>
@@ -3473,8 +4266,11 @@
       <c r="D252">
         <v>1.6971609832792191E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" s="4">
+        <v>-2.0366598778004397E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="1">
         <v>12</v>
@@ -3485,8 +4281,11 @@
       <c r="D253">
         <v>1.840775189206683E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" s="4">
+        <v>-4.0816326530612734E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>1983</v>
       </c>
@@ -3499,8 +4298,11 @@
       <c r="D254">
         <v>-8.8031330831063632E-5</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" s="4">
+        <v>2.049180327868827E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="1">
         <v>2</v>
@@ -3511,8 +4313,11 @@
       <c r="D255">
         <v>2.8998485594041751E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" s="4">
+        <v>1.0224948875257045E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="1">
         <v>3</v>
@@ -3523,8 +4328,11 @@
       <c r="D256">
         <v>-7.8323425968598679E-3</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="1">
         <v>4</v>
@@ -3535,8 +4343,11 @@
       <c r="D257">
         <v>2.401646529615014E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" s="4">
+        <v>7.1501532175688443E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="1">
         <v>5</v>
@@ -3547,8 +4358,11 @@
       <c r="D258">
         <v>-1.711968182518708E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" s="4">
+        <v>6.0851926977687487E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="1">
         <v>6</v>
@@ -3559,8 +4373,11 @@
       <c r="D259">
         <v>5.4055732389541688E-4</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" s="4">
+        <v>3.0241935483870108E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="1">
         <v>7</v>
@@ -3571,8 +4388,11 @@
       <c r="D260">
         <v>-2.3554233893458589E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" s="4">
+        <v>4.020100502512669E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="1">
         <v>8</v>
@@ -3583,8 +4403,11 @@
       <c r="D261">
         <v>2.6623901833981662E-3</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" s="4">
+        <v>3.0030030030030463E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="1">
         <v>9</v>
@@ -3595,8 +4418,11 @@
       <c r="D262">
         <v>3.1251630486305478E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" s="4">
+        <v>4.9900199600798611E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="1">
         <v>10</v>
@@ -3607,8 +4433,11 @@
       <c r="D263">
         <v>2.2450596666951888E-3</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" s="4">
+        <v>2.9791459781529639E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="1">
         <v>11</v>
@@ -3619,8 +4448,11 @@
       <c r="D264">
         <v>1.028184419876146E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" s="4">
+        <v>1.980198019801982E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="1">
         <v>12</v>
@@ -3631,8 +4463,11 @@
       <c r="D265">
         <v>1.419208979599552E-3</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" s="4">
+        <v>9.8814229249000185E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>1984</v>
       </c>
@@ -3645,8 +4480,11 @@
       <c r="D266">
         <v>1.8313421320586901E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" s="4">
+        <v>5.9230009871669154E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="1">
         <v>2</v>
@@ -3657,8 +4495,11 @@
       <c r="D267">
         <v>-6.2444971279387064E-3</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" s="4">
+        <v>4.9067713444552741E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="1">
         <v>3</v>
@@ -3669,8 +4510,11 @@
       <c r="D268">
         <v>-9.8035947734130026E-3</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" s="4">
+        <v>1.953124999999778E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="1">
         <v>4</v>
@@ -3681,8 +4525,11 @@
       <c r="D269">
         <v>-3.4028202286012608E-4</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" s="4">
+        <v>4.873294346978474E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="1">
         <v>5</v>
@@ -3693,8 +4540,11 @@
       <c r="D270">
         <v>-3.0264056109802241E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" s="4">
+        <v>2.9097963142581396E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="1">
         <v>6</v>
@@ -3705,8 +4555,11 @@
       <c r="D271">
         <v>1.191870087459967E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" s="4">
+        <v>2.9013539651836506E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="1">
         <v>7</v>
@@ -3717,8 +4570,11 @@
       <c r="D272">
         <v>4.2499057910357962E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" s="4">
+        <v>3.8572806171648377E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="1">
         <v>8</v>
@@ -3729,8 +4585,11 @@
       <c r="D273">
         <v>1.21982178167974E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" s="4">
+        <v>3.842459173871271E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="1">
         <v>9</v>
@@ -3741,8 +4600,11 @@
       <c r="D274">
         <v>2.204061331923407E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" s="4">
+        <v>4.7846889952152249E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="1">
         <v>10</v>
@@ -3753,8 +4615,11 @@
       <c r="D275">
         <v>3.9686661176581893E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" s="4">
+        <v>2.8571428571428914E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="1">
         <v>11</v>
@@ -3765,8 +4630,11 @@
       <c r="D276">
         <v>2.1826263300933561E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="1">
         <v>12</v>
@@ -3777,8 +4645,11 @@
       <c r="D277">
         <v>1.639232910404104E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>1985</v>
       </c>
@@ -3791,8 +4662,11 @@
       <c r="D278">
         <v>1.9876647468292919E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" s="4">
+        <v>1.8993352326686086E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="1">
         <v>2</v>
@@ -3803,8 +4677,11 @@
       <c r="D279">
         <v>-2.3150534808578281E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" s="4">
+        <v>4.7393364928909332E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="1">
         <v>3</v>
@@ -3815,8 +4692,11 @@
       <c r="D280">
         <v>1.8677918042150798E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" s="4">
+        <v>3.7735849056603765E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="1">
         <v>4</v>
@@ -3827,8 +4707,11 @@
       <c r="D281">
         <v>2.378268191803758E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" s="4">
+        <v>4.6992481203007586E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="1">
         <v>5</v>
@@ -3839,8 +4722,11 @@
       <c r="D282">
         <v>5.3326332188024968E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" s="4">
+        <v>3.7418147801682178E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="1">
         <v>6</v>
@@ -3851,8 +4737,11 @@
       <c r="D283">
         <v>9.0090033589024718E-3</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" s="4">
+        <v>2.7958993476233651E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="1">
         <v>7</v>
@@ -3863,8 +4752,11 @@
       <c r="D284">
         <v>-3.9662853610013182E-3</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" s="4">
+        <v>1.8587360594795044E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="1">
         <v>8</v>
@@ -3875,8 +4767,11 @@
       <c r="D285">
         <v>1.6447382529009132E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" s="4">
+        <v>1.8552875695732052E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="1">
         <v>9</v>
@@ -3887,8 +4782,11 @@
       <c r="D286">
         <v>9.4787842904818318E-3</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" s="4">
+        <v>2.7777777777777679E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="1">
         <v>10</v>
@@ -3899,8 +4797,11 @@
       <c r="D287">
         <v>1.6637902048065058E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" s="4">
+        <v>3.6934441366573978E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="1">
         <v>11</v>
@@ -3911,8 +4812,11 @@
       <c r="D288">
         <v>2.4145522066623411E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288" s="4">
+        <v>2.7598896044158661E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="1">
         <v>12</v>
@@ -3923,8 +4827,11 @@
       <c r="D289">
         <v>3.0651193087538029E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289" s="4">
+        <v>2.7522935779815683E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>1986</v>
       </c>
@@ -3937,8 +4844,11 @@
       <c r="D290">
         <v>5.4346584323120579E-3</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" s="4">
+        <v>2.7447392497712553E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="1">
         <v>2</v>
@@ -3949,8 +4859,11 @@
       <c r="D291">
         <v>3.4673734055600133E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291" s="4">
+        <v>-2.7372262773722733E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="1">
         <v>3</v>
@@ -3961,8 +4874,11 @@
       <c r="D292">
         <v>3.7686054365540997E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" s="4">
+        <v>-4.5745654162854255E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="1">
         <v>4</v>
@@ -3973,8 +4889,11 @@
       <c r="D293">
         <v>6.3585390741237252E-3</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" s="4">
+        <v>-1.8382352941176405E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="1">
         <v>5</v>
@@ -3985,8 +4904,11 @@
       <c r="D294">
         <v>-2.0526136583557241E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294" s="4">
+        <v>2.7624309392266788E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="1">
         <v>6</v>
@@ -3997,8 +4919,11 @@
       <c r="D295">
         <v>3.0740693248907481E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295" s="4">
+        <v>5.5096418732782926E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="1">
         <v>7</v>
@@ -4009,8 +4934,11 @@
       <c r="D296">
         <v>1.3993923365352349E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="1">
         <v>8</v>
@@ -4021,8 +4949,11 @@
       <c r="D297">
         <v>3.1367434196409451E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297" s="4">
+        <v>1.8264840182649067E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="1">
         <v>9</v>
@@ -4033,8 +4964,11 @@
       <c r="D298">
         <v>-1.8294737094102131E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298" s="4">
+        <v>4.5578851412944044E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="1">
         <v>10</v>
@@ -4045,8 +4979,11 @@
       <c r="D299">
         <v>1.363976518965941E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299" s="4">
+        <v>9.0744101633388752E-4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="1">
         <v>11</v>
@@ -4057,8 +4994,11 @@
       <c r="D300">
         <v>1.075418794394126E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300" s="4">
+        <v>9.066183136900996E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="1">
         <v>12</v>
@@ -4069,8 +5009,11 @@
       <c r="D301">
         <v>-7.1535404638795074E-4</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301" s="4">
+        <v>9.0579710144922387E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>1987</v>
       </c>
@@ -4083,8 +5026,11 @@
       <c r="D302">
         <v>9.5717166986293116E-3</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" s="4">
+        <v>6.3348416289592535E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="1">
         <v>2</v>
@@ -4095,8 +5041,11 @@
       <c r="D303">
         <v>5.6826993108980827E-3</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" s="4">
+        <v>3.597122302158251E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="1">
         <v>3</v>
@@ -4107,8 +5056,11 @@
       <c r="D304">
         <v>-6.7411002521054943E-3</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" s="4">
+        <v>4.4802867383513245E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="1">
         <v>4</v>
@@ -4119,8 +5071,11 @@
       <c r="D305">
         <v>-2.6690410777265351E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" s="4">
+        <v>5.3523639607493401E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="1">
         <v>5</v>
@@ -4131,8 +5086,11 @@
       <c r="D306">
         <v>-7.1756981278596971E-3</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" s="4">
+        <v>3.549245785270605E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="1">
         <v>6</v>
@@ -4143,8 +5101,11 @@
       <c r="D307">
         <v>1.1685044984455851E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" s="4">
+        <v>3.5366931918656697E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="1">
         <v>7</v>
@@ -4155,8 +5116,11 @@
       <c r="D308">
         <v>-9.6812871744927692E-4</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" s="4">
+        <v>2.6431718061674658E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="1">
         <v>8</v>
@@ -4167,8 +5131,11 @@
       <c r="D309">
         <v>-5.5103292359866343E-3</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" s="4">
+        <v>5.2724077328647478E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="1">
         <v>9</v>
@@ -4179,8 +5146,11 @@
       <c r="D310">
         <v>-2.016385999653534E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" s="4">
+        <v>5.2447552447552059E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="1">
         <v>10</v>
@@ -4191,8 +5161,11 @@
       <c r="D311">
         <v>3.9346047415789911E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" s="4">
+        <v>2.6086956521738092E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="1">
         <v>11</v>
@@ -4203,8 +5176,11 @@
       <c r="D312">
         <v>4.8146576948835413E-3</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" s="4">
+        <v>8.6730268863832727E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="1">
         <v>12</v>
@@ -4215,8 +5191,11 @@
       <c r="D313">
         <v>1.059221445645871E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>1988</v>
       </c>
@@ -4229,8 +5208,11 @@
       <c r="D314">
         <v>3.1041988021167841E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" s="4">
+        <v>2.5996533795493715E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="1">
         <v>2</v>
@@ -4241,8 +5223,11 @@
       <c r="D315">
         <v>1.1936245025285929E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315" s="4">
+        <v>2.5929127052721768E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="1">
         <v>3</v>
@@ -4253,8 +5238,11 @@
       <c r="D316">
         <v>-8.8972983105638954E-3</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" s="4">
+        <v>4.3103448275862988E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="1">
         <v>4</v>
@@ -4265,8 +5253,11 @@
       <c r="D317">
         <v>-5.5938748158303074E-3</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" s="4">
+        <v>5.1502145922746045E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="1">
         <v>5</v>
@@ -4277,8 +5268,11 @@
       <c r="D318">
         <v>-8.6358927320963272E-3</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" s="4">
+        <v>3.4158838599487318E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="1">
         <v>6</v>
@@ -4289,8 +5283,11 @@
       <c r="D319">
         <v>1.8820885397895771E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" s="4">
+        <v>4.2553191489360653E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="1">
         <v>7</v>
@@ -4301,8 +5298,11 @@
       <c r="D320">
         <v>-7.2097172828778878E-3</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" s="4">
+        <v>4.237288135593209E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="1">
         <v>8</v>
@@ -4313,8 +5313,11 @@
       <c r="D321">
         <v>-2.5873474724272739E-6</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" s="4">
+        <v>4.2194092827003704E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="1">
         <v>9</v>
@@ -4325,8 +5328,11 @@
       <c r="D322">
         <v>2.057260415807639E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" s="4">
+        <v>6.7226890756302282E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="1">
         <v>10</v>
@@ -4337,8 +5343,11 @@
       <c r="D323">
         <v>1.672555621245795E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" s="4">
+        <v>3.3388981636059967E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="1">
         <v>11</v>
@@ -4349,8 +5358,11 @@
       <c r="D324">
         <v>-1.445482378909713E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" s="4">
+        <v>8.3194675540765317E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="1">
         <v>12</v>
@@ -4361,8 +5373,11 @@
       <c r="D325">
         <v>-1.7262031256622941E-3</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" s="4">
+        <v>1.6625103906899863E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>1989</v>
       </c>
@@ -4375,8 +5390,11 @@
       <c r="D326">
         <v>1.023407404320089E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" s="4">
+        <v>4.9792531120331773E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="1">
         <v>2</v>
@@ -4387,8 +5405,11 @@
       <c r="D327">
         <v>-7.0684789503348069E-3</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" s="4">
+        <v>4.1288191577208977E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="1">
         <v>3</v>
@@ -4399,8 +5420,11 @@
       <c r="D328">
         <v>3.4777663903650291E-3</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" s="4">
+        <v>5.7565789473683626E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="1">
         <v>4</v>
@@ -4411,8 +5435,11 @@
       <c r="D329">
         <v>2.6814859726302809E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" s="4">
+        <v>6.5412919051512919E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="1">
         <v>5</v>
@@ -4423,8 +5450,11 @@
       <c r="D330">
         <v>2.3148652283242682E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" s="4">
+        <v>5.6864337936637366E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="1">
         <v>6</v>
@@ -4435,8 +5465,11 @@
       <c r="D331">
         <v>3.0272152913793759E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" s="4">
+        <v>2.4232633279481774E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="1">
         <v>7</v>
@@ -4447,8 +5480,11 @@
       <c r="D332">
         <v>2.703249485086523E-2</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" s="4">
+        <v>2.4174053182917099E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="1">
         <v>8</v>
@@ -4459,8 +5495,11 @@
       <c r="D333">
         <v>-2.011481123137868E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" s="4">
+        <v>1.607717041800516E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="1">
         <v>9</v>
@@ -4471,8 +5510,11 @@
       <c r="D334">
         <v>2.895336827082162E-3</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" s="4">
+        <v>3.2102728731941976E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="1">
         <v>10</v>
@@ -4483,8 +5525,11 @@
       <c r="D335">
         <v>2.591203110650573E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" s="4">
+        <v>4.7999999999999154E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="1">
         <v>11</v>
@@ -4495,8 +5540,11 @@
       <c r="D336">
         <v>1.1228718242261701E-2</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336" s="4">
+        <v>2.3885350318473275E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="1">
         <v>12</v>
@@ -4507,8 +5555,11 @@
       <c r="D337">
         <v>1.2184000087532309E-3</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337" s="4">
+        <v>1.5885623510722979E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>1990</v>
       </c>
@@ -4521,8 +5572,11 @@
       <c r="D338">
         <v>-1.204979947420084E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" s="4">
+        <v>1.0309278350515649E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="1">
         <v>2</v>
@@ -4533,8 +5587,11 @@
       <c r="D339">
         <v>3.052737778290304E-3</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339" s="4">
+        <v>4.7095761381474865E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="1">
         <v>3</v>
@@ -4545,8 +5602,11 @@
       <c r="D340">
         <v>-1.3920512820936269E-3</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" s="4">
+        <v>5.4687499999999112E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="1">
         <v>4</v>
@@ -4557,8 +5617,11 @@
       <c r="D341">
         <v>-8.6071258072702526E-3</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341" s="4">
+        <v>1.5540015540016494E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="1">
         <v>5</v>
@@ -4569,8 +5632,11 @@
       <c r="D342">
         <v>2.5209356238577459E-2</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342" s="4">
+        <v>2.3273855702092838E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="1">
         <v>6</v>
@@ -4581,8 +5647,11 @@
       <c r="D343">
         <v>1.501729274400139E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343" s="4">
+        <v>5.4179566563468118E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="1">
         <v>7</v>
@@ -4593,8 +5662,11 @@
       <c r="D344">
         <v>1.6060974172172102E-2</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344" s="4">
+        <v>3.8491147036181506E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="1">
         <v>8</v>
@@ -4605,8 +5677,11 @@
       <c r="D345">
         <v>-7.1278066907312426E-3</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" s="4">
+        <v>9.2024539877300082E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="1">
         <v>9</v>
@@ -4617,8 +5692,11 @@
       <c r="D346">
         <v>8.4128370865743096E-3</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346" s="4">
+        <v>8.358662613981771E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="1">
         <v>10</v>
@@ -4629,8 +5707,11 @@
       <c r="D347">
         <v>1.520870312166438E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347" s="4">
+        <v>6.0286360211003753E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="1">
         <v>11</v>
@@ -4641,8 +5722,11 @@
       <c r="D348">
         <v>1.9858872883310369E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348" s="4">
+        <v>2.2471910112360494E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="1">
         <v>12</v>
@@ -4653,8 +5737,11 @@
       <c r="D349">
         <v>1.667114110773682E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>1991</v>
       </c>
@@ -4667,8 +5754,11 @@
       <c r="D350">
         <v>8.4980134926423388E-3</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" s="4">
+        <v>5.9790732436471039E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="1">
         <v>2</v>
@@ -4679,8 +5769,11 @@
       <c r="D351">
         <v>4.4302781222076973E-3</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351" s="4">
+        <v>1.4858841010403356E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="1">
         <v>3</v>
@@ -4691,8 +5784,11 @@
       <c r="D352">
         <v>3.1788868714637411E-3</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352" s="4">
+        <v>1.4836795252224366E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="1">
         <v>4</v>
@@ -4703,8 +5799,11 @@
       <c r="D353">
         <v>1.045139186677365E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353" s="4">
+        <v>1.481481481481417E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="1">
         <v>5</v>
@@ -4715,8 +5814,11 @@
       <c r="D354">
         <v>3.8010889761396411E-3</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354" s="4">
+        <v>2.9585798816569309E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="1">
         <v>6</v>
@@ -4727,8 +5829,11 @@
       <c r="D355">
         <v>-2.7149848033574731E-3</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" s="4">
+        <v>2.9498525073747839E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="1">
         <v>7</v>
@@ -4739,8 +5844,11 @@
       <c r="D356">
         <v>1.176838935624485E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356" s="4">
+        <v>1.4705882352941124E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="1">
         <v>8</v>
@@ -4751,8 +5859,11 @@
       <c r="D357">
         <v>2.2620880668038079E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" s="4">
+        <v>2.936857562408246E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="1">
         <v>9</v>
@@ -4763,8 +5874,11 @@
       <c r="D358">
         <v>2.4567739509420101E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358" s="4">
+        <v>4.3923865300146137E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="1">
         <v>10</v>
@@ -4775,8 +5889,11 @@
       <c r="D359">
         <v>1.213956486102875E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" s="4">
+        <v>1.4577259475219151E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="1">
         <v>11</v>
@@ -4787,8 +5904,11 @@
       <c r="D360">
         <v>1.6925450422518751E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360" s="4">
+        <v>2.9112081513829047E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="1">
         <v>12</v>
@@ -4799,8 +5919,11 @@
       <c r="D361">
         <v>2.8744203355592721E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E361" s="4">
+        <v>7.2568940493455969E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>1992</v>
       </c>
@@ -4813,8 +5936,11 @@
       <c r="D362">
         <v>-1.565064160845334E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E362" s="4">
+        <v>1.4503263234226793E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="1">
         <v>2</v>
@@ -4825,8 +5951,11 @@
       <c r="D363">
         <v>-9.8721009640200712E-4</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E363" s="4">
+        <v>3.6205648081100161E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="1">
         <v>3</v>
@@ -4837,8 +5966,11 @@
       <c r="D364">
         <v>-8.6165683036851723E-3</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364" s="4">
+        <v>5.050505050505194E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="1">
         <v>4</v>
@@ -4849,8 +5981,11 @@
       <c r="D365">
         <v>6.7759928029052837E-3</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E365" s="4">
+        <v>1.43575017946862E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="1">
         <v>5</v>
@@ -4861,8 +5996,11 @@
       <c r="D366">
         <v>1.8746363880630799E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366" s="4">
+        <v>1.4336917562722817E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="1">
         <v>6</v>
@@ -4873,8 +6011,11 @@
       <c r="D367">
         <v>1.825533570110742E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E367" s="4">
+        <v>3.5790980672869566E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="1">
         <v>7</v>
@@ -4885,8 +6026,11 @@
       <c r="D368">
         <v>2.3045579930597221E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E368" s="4">
+        <v>2.1398002853068032E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="1">
         <v>8</v>
@@ -4897,8 +6041,11 @@
       <c r="D369">
         <v>1.5064446301232709E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E369" s="4">
+        <v>2.846975088967918E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="1">
         <v>9</v>
@@ -4909,8 +6056,11 @@
       <c r="D370">
         <v>1.609788263049677E-2</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E370" s="4">
+        <v>2.8388928317957252E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="1">
         <v>10</v>
@@ -4921,8 +6071,11 @@
       <c r="D371">
         <v>-1.903141085216551E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371" s="4">
+        <v>3.5385704175512345E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="1">
         <v>11</v>
@@ -4933,8 +6086,11 @@
       <c r="D372">
         <v>-9.3997988566011884E-3</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E372" s="4">
+        <v>1.4104372355430161E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="1">
         <v>12</v>
@@ -4945,8 +6101,11 @@
       <c r="D373">
         <v>1.258541967226524E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E373" s="4">
+        <v>-7.0422535211267512E-4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>1993</v>
       </c>
@@ -4959,8 +6118,11 @@
       <c r="D374">
         <v>2.6028444790073761E-2</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E374" s="4">
+        <v>4.9330514446792595E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="1">
         <v>2</v>
@@ -4971,8 +6133,11 @@
       <c r="D375">
         <v>2.187090165180821E-2</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E375" s="4">
+        <v>3.5063113604487661E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="1">
         <v>3</v>
@@ -4983,8 +6148,11 @@
       <c r="D376">
         <v>3.114324998222466E-3</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E376" s="4">
+        <v>3.4940600978337066E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="1">
         <v>4</v>
@@ -4995,8 +6163,11 @@
       <c r="D377">
         <v>8.5505756619484244E-3</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E377" s="4">
+        <v>2.7855153203342198E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="1">
         <v>5</v>
@@ -5007,8 +6178,11 @@
       <c r="D378">
         <v>-6.3523533365325516E-3</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E378" s="4">
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="1">
         <v>6</v>
@@ -5019,8 +6193,11 @@
       <c r="D379">
         <v>1.7795159762885111E-2</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E379" s="4">
+        <v>1.3869625520113171E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="1">
         <v>7</v>
@@ -5031,8 +6208,11 @@
       <c r="D380">
         <v>-6.5481772977200804E-4</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E380" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="1">
         <v>8</v>
@@ -5043,8 +6223,11 @@
       <c r="D381">
         <v>1.9230873586440239E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E381" s="4">
+        <v>2.7700831024930483E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="1">
         <v>9</v>
@@ -5055,8 +6238,11 @@
       <c r="D382">
         <v>4.3248323891774253E-3</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382" s="4">
+        <v>2.071823204419676E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="1">
         <v>10</v>
@@ -5067,8 +6253,11 @@
       <c r="D383">
         <v>1.9442470419287481E-3</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E383" s="4">
+        <v>4.1350792556857918E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="1">
         <v>11</v>
@@ -5079,8 +6268,11 @@
       <c r="D384">
         <v>-9.597475805219486E-3</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" s="4">
+        <v>6.8634179821569496E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="1">
         <v>12</v>
@@ -5091,8 +6283,11 @@
       <c r="D385">
         <v>1.637950997724775E-3</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E385" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>1994</v>
       </c>
@@ -5105,8 +6300,11 @@
       <c r="D386">
         <v>1.260329918686558E-2</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E386" s="4">
+        <v>2.7434842249656199E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="1">
         <v>2</v>
@@ -5117,8 +6315,11 @@
       <c r="D387">
         <v>-2.327092915808705E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387" s="4">
+        <v>3.4199726402188713E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="1">
         <v>3</v>
@@ -5129,8 +6330,11 @@
       <c r="D388">
         <v>-2.0017345449319161E-2</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E388" s="4">
+        <v>3.4083162917519783E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="1">
         <v>4</v>
@@ -5141,8 +6345,11 @@
       <c r="D389">
         <v>-1.3345438960709581E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" s="4">
+        <v>1.3586956521740579E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="1">
         <v>5</v>
@@ -5153,8 +6360,11 @@
       <c r="D390">
         <v>4.9972765991495877E-4</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390" s="4">
+        <v>6.7842605156043234E-4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="1">
         <v>6</v>
@@ -5165,8 +6375,11 @@
       <c r="D391">
         <v>-2.7575140564348108E-3</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E391" s="4">
+        <v>3.3898305084745228E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="1">
         <v>7</v>
@@ -5177,8 +6390,11 @@
       <c r="D392">
         <v>1.6277592335468001E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392" s="4">
+        <v>2.7027027027026751E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="1">
         <v>8</v>
@@ -5189,8 +6405,11 @@
       <c r="D393">
         <v>2.572528632384009E-3</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E393" s="4">
+        <v>4.0431266846361336E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="1">
         <v>9</v>
@@ -5201,8 +6420,11 @@
       <c r="D394">
         <v>-1.379209376925707E-2</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E394" s="4">
+        <v>2.6845637583892135E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="1">
         <v>10</v>
@@ -5213,8 +6435,11 @@
       <c r="D395">
         <v>-2.0553734148233169E-3</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395" s="4">
+        <v>6.6934404283802706E-4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="1">
         <v>11</v>
@@ -5225,8 +6450,11 @@
       <c r="D396">
         <v>-6.4293328912339298E-3</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E396" s="4">
+        <v>1.3377926421402897E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="1">
         <v>12</v>
@@ -5237,8 +6465,11 @@
       <c r="D397">
         <v>4.6783270966406568E-3</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E397" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>1995</v>
       </c>
@@ -5251,8 +6482,11 @@
       <c r="D398">
         <v>1.8564460283123491E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E398" s="4">
+        <v>4.0080160320643543E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="1">
         <v>2</v>
@@ -5263,8 +6497,11 @@
       <c r="D399">
         <v>2.8112343240791191E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E399" s="4">
+        <v>3.9920159680637557E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="1">
         <v>3</v>
@@ -5275,8 +6512,11 @@
       <c r="D400">
         <v>4.6556717545694392E-3</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E400" s="4">
+        <v>3.3134526176274992E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="1">
         <v>4</v>
@@ -5287,8 +6527,11 @@
       <c r="D401">
         <v>1.494885665370858E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E401" s="4">
+        <v>3.3025099075296716E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="1">
         <v>5</v>
@@ -5299,8 +6542,11 @@
       <c r="D402">
         <v>3.7733639662533659E-2</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402" s="4">
+        <v>1.9749835418036987E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="1">
         <v>6</v>
@@ -5311,8 +6557,11 @@
       <c r="D403">
         <v>8.7928058187542388E-3</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E403" s="4">
+        <v>1.9710906701708719E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="1">
         <v>7</v>
@@ -5323,8 +6572,11 @@
       <c r="D404">
         <v>-2.707931933731718E-3</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E404" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="1">
         <v>8</v>
@@ -5335,8 +6587,11 @@
       <c r="D405">
         <v>8.3111935219599697E-3</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E405" s="4">
+        <v>2.6229508196722318E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="1">
         <v>9</v>
@@ -5347,8 +6602,11 @@
       <c r="D406">
         <v>7.6568912925449048E-3</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E406" s="4">
+        <v>1.9620667102679956E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="1">
         <v>10</v>
@@ -5359,8 +6617,11 @@
       <c r="D407">
         <v>1.3022828144401109E-2</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E407" s="4">
+        <v>3.2637075718016106E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="1">
         <v>11</v>
@@ -5371,8 +6632,11 @@
       <c r="D408">
         <v>1.6696033337144749E-2</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E408" s="4">
+        <v>-6.5061808718280822E-4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="1">
         <v>12</v>
@@ -5383,8 +6647,11 @@
       <c r="D409">
         <v>1.137807550232374E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E409" s="4">
+        <v>-6.5104166666662966E-4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>1996</v>
       </c>
@@ -5397,8 +6664,11 @@
       <c r="D410">
         <v>9.9910917843354478E-3</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E410" s="4">
+        <v>5.8631921824103816E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="1">
         <v>2</v>
@@ -5409,8 +6679,11 @@
       <c r="D411">
         <v>-1.7320410073331759E-2</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E411" s="4">
+        <v>3.2383419689119286E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="1">
         <v>3</v>
@@ -5421,8 +6694,11 @@
       <c r="D412">
         <v>-1.102394415471664E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E412" s="4">
+        <v>5.1646223369914424E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="1">
         <v>4</v>
@@ -5433,8 +6709,11 @@
       <c r="D413">
         <v>-7.1728616594146557E-3</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E413" s="4">
+        <v>3.8535645472064228E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="1">
         <v>5</v>
@@ -5445,8 +6724,11 @@
       <c r="D414">
         <v>-4.4337417659009353E-3</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E414" s="4">
+        <v>1.9193857965449368E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="1">
         <v>6</v>
@@ -5457,8 +6739,11 @@
       <c r="D415">
         <v>1.2871605831889611E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E415" s="4">
+        <v>6.3856960408670282E-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="1">
         <v>7</v>
@@ -5469,8 +6754,11 @@
       <c r="D416">
         <v>1.6735717252201439E-3</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416" s="4">
+        <v>1.9144862795150708E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="1">
         <v>8</v>
@@ -5481,8 +6769,11 @@
       <c r="D417">
         <v>-1.440038623323322E-3</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E417" s="4">
+        <v>1.9108280254778176E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="1">
         <v>9</v>
@@ -5493,8 +6784,11 @@
       <c r="D418">
         <v>1.7745112413708141E-2</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E418" s="4">
+        <v>3.1786395422759295E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="1">
         <v>10</v>
@@ -5505,8 +6799,11 @@
       <c r="D419">
         <v>1.875155384667717E-2</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419" s="4">
+        <v>3.1685678073509749E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="1">
         <v>11</v>
@@ -5517,8 +6814,11 @@
       <c r="D420">
         <v>1.6595422007930391E-2</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E420" s="4">
+        <v>1.8951358180667732E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="1">
         <v>12</v>
@@ -5529,8 +6829,11 @@
       <c r="D421">
         <v>-1.050851970827324E-2</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>1997</v>
       </c>
@@ -5543,8 +6846,11 @@
       <c r="D422">
         <v>3.0590864666357291E-3</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E422" s="4">
+        <v>3.1525851197982124E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="1">
         <v>2</v>
@@ -5555,8 +6861,11 @@
       <c r="D423">
         <v>-8.8622360727716161E-4</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E423" s="4">
+        <v>3.14267756128217E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="1">
         <v>3</v>
@@ -5567,8 +6876,11 @@
       <c r="D424">
         <v>-1.101567655803409E-2</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E424" s="4">
+        <v>2.5062656641603454E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="1">
         <v>4</v>
@@ -5579,8 +6891,11 @@
       <c r="D425">
         <v>1.326894341434008E-2</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425" s="4">
+        <v>1.2499999999999734E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="1">
         <v>5</v>
@@ -5591,8 +6906,11 @@
       <c r="D426">
         <v>7.8582203750258827E-3</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E426" s="4">
+        <v>-6.2421972534332237E-4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="1">
         <v>6</v>
@@ -5603,8 +6921,11 @@
       <c r="D427">
         <v>9.9844455173620575E-3</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E427" s="4">
+        <v>1.2492192379762734E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="1">
         <v>7</v>
@@ -5615,8 +6936,11 @@
       <c r="D428">
         <v>2.5209764161087441E-2</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E428" s="4">
+        <v>1.2476606363067688E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="1">
         <v>8</v>
@@ -5627,8 +6951,11 @@
       <c r="D429">
         <v>-8.7804358058522873E-3</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E429" s="4">
+        <v>1.8691588785046953E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="1">
         <v>9</v>
@@ -5639,8 +6966,11 @@
       <c r="D430">
         <v>1.4674383639621759E-2</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430" s="4">
+        <v>2.4875621890545485E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="1">
         <v>10</v>
@@ -5651,8 +6981,11 @@
       <c r="D431">
         <v>1.554875868610874E-2</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E431" s="4">
+        <v>2.4813895781639062E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="1">
         <v>11</v>
@@ -5663,8 +6996,11 @@
       <c r="D432">
         <v>-3.6569932784716921E-4</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E432" s="4">
+        <v>-6.1881188118806385E-4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="1">
         <v>12</v>
@@ -5675,8 +7011,11 @@
       <c r="D433">
         <v>9.8427836556551004E-3</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E433" s="4">
+        <v>-1.2383900928791824E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>1998</v>
       </c>
@@ -5689,8 +7028,11 @@
       <c r="D434">
         <v>1.9208489181387779E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E434" s="4">
+        <v>1.8598884066955979E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="1">
         <v>2</v>
@@ -5701,8 +7043,11 @@
       <c r="D435">
         <v>-4.9550452608265339E-3</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E435" s="4">
+        <v>1.8564356435644136E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="1">
         <v>3</v>
@@ -5713,8 +7058,11 @@
       <c r="D436">
         <v>2.5878214347910791E-3</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E436" s="4">
+        <v>1.8529956763433386E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="1">
         <v>4</v>
@@ -5725,8 +7073,11 @@
       <c r="D437">
         <v>4.1365159209820167E-3</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E437" s="4">
+        <v>1.8495684340320562E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="1">
         <v>5</v>
@@ -5737,8 +7088,11 @@
       <c r="D438">
         <v>8.727591929628185E-3</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E438" s="4">
+        <v>1.8461538461538307E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="1">
         <v>6</v>
@@ -5749,8 +7103,11 @@
       <c r="D439">
         <v>8.2882349596768452E-3</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E439" s="4">
+        <v>1.2285012285011554E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="1">
         <v>7</v>
@@ -5761,8 +7118,11 @@
       <c r="D440">
         <v>2.307713392358799E-3</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E440" s="4">
+        <v>1.2269938650306678E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="1">
         <v>8</v>
@@ -5773,8 +7133,11 @@
       <c r="D441">
         <v>3.101752080050988E-2</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E441" s="4">
+        <v>1.225490196078427E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="1">
         <v>9</v>
@@ -5785,8 +7148,11 @@
       <c r="D442">
         <v>3.395500145304816E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E442" s="4">
+        <v>1.2239902080781739E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="1">
         <v>10</v>
@@ -5797,8 +7163,11 @@
       <c r="D443">
         <v>2.9563216616239119E-3</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E443" s="4">
+        <v>2.4449877750611915E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="1">
         <v>11</v>
@@ -5809,8 +7178,11 @@
       <c r="D444">
         <v>-8.5717788213041778E-3</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E444" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="1">
         <v>12</v>
@@ -5821,8 +7193,11 @@
       <c r="D445">
         <v>1.5221616680760901E-3</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E445" s="4">
+        <v>-6.0975609756097615E-4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>1999</v>
       </c>
@@ -5835,8 +7210,11 @@
       <c r="D446">
         <v>4.5137049573798103E-3</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E446" s="4">
+        <v>2.4405125076265577E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="1">
         <v>2</v>
@@ -5847,8 +7225,11 @@
       <c r="D447">
         <v>-2.7886715767846199E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E447" s="4">
+        <v>1.2172854534386879E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="1">
         <v>3</v>
@@ -5859,8 +7240,11 @@
       <c r="D448">
         <v>7.8001435618817606E-3</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E448" s="4">
+        <v>3.0395136778116338E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="1">
         <v>4</v>
@@ -5871,8 +7255,11 @@
       <c r="D449">
         <v>-1.0667823229118939E-3</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E449" s="4">
+        <v>7.2727272727270975E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="1">
         <v>5</v>
@@ -5883,8 +7270,11 @@
       <c r="D450">
         <v>-1.2008899928099229E-2</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E450" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="1">
         <v>6</v>
@@ -5895,8 +7285,11 @@
       <c r="D451">
         <v>2.1085491902327431E-3</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E451" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="1">
         <v>7</v>
@@ -5907,8 +7300,11 @@
       <c r="D452">
         <v>-1.809273155019789E-3</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E452" s="4">
+        <v>3.0084235860408093E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="1">
         <v>8</v>
@@ -5919,8 +7315,11 @@
       <c r="D453">
         <v>2.413527748088951E-3</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E453" s="4">
+        <v>2.3995200959807672E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="1">
         <v>9</v>
@@ -5931,8 +7330,11 @@
       <c r="D454">
         <v>9.0094642977867102E-3</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E454" s="4">
+        <v>4.7875523638540862E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="1">
         <v>10</v>
@@ -5943,8 +7345,11 @@
       <c r="D455">
         <v>-3.3858816427996511E-3</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E455" s="4">
+        <v>1.7867778439546456E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="1">
         <v>11</v>
@@ -5955,8 +7360,11 @@
       <c r="D456">
         <v>-8.0421998775093032E-4</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E456" s="4">
+        <v>5.9453032104661574E-4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="1">
         <v>12</v>
@@ -5967,8 +7375,11 @@
       <c r="D457">
         <v>-5.1661286091120263E-3</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E457" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>2000</v>
       </c>
@@ -5981,8 +7392,11 @@
       <c r="D458">
         <v>-9.661645742308881E-3</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E458" s="4">
+        <v>2.9708853238266109E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="1">
         <v>2</v>
@@ -5993,8 +7407,11 @@
       <c r="D459">
         <v>9.928512071228475E-3</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E459" s="4">
+        <v>5.924170616113722E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="1">
         <v>3</v>
@@ -6005,8 +7422,11 @@
       <c r="D460">
         <v>1.6160397514398891E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E460" s="4">
+        <v>8.2449941107183289E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="1">
         <v>4</v>
@@ -6017,8 +7437,11 @@
       <c r="D461">
         <v>-5.9099381995925456E-3</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E461" s="4">
+        <v>5.8411214953291157E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="1">
         <v>5</v>
@@ -6029,8 +7452,11 @@
       <c r="D462">
         <v>6.5076848160307678E-3</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E462" s="4">
+        <v>1.1675423234092097E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="1">
         <v>6</v>
@@ -6041,8 +7467,11 @@
       <c r="D463">
         <v>1.9432159266632901E-2</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E463" s="4">
+        <v>5.2478134110787167E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="1">
         <v>7</v>
@@ -6053,8 +7482,11 @@
       <c r="D464">
         <v>6.3456772193851299E-3</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E464" s="4">
+        <v>2.3201856148491462E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="1">
         <v>8</v>
@@ -6065,8 +7497,11 @@
       <c r="D465">
         <v>1.164498469880227E-2</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E465" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="1">
         <v>9</v>
@@ -6077,8 +7512,11 @@
       <c r="D466">
         <v>1.072608367471257E-2</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E466" s="4">
+        <v>5.2083333333332593E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="1">
         <v>10</v>
@@ -6089,8 +7527,11 @@
       <c r="D467">
         <v>5.6096880874853747E-3</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E467" s="4">
+        <v>1.7271157167531026E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="1">
         <v>11</v>
@@ -6101,8 +7542,11 @@
       <c r="D468">
         <v>2.23127348979608E-2</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E468" s="4">
+        <v>5.7471264367814356E-4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="1">
         <v>12</v>
@@ -6113,8 +7557,11 @@
       <c r="D469">
         <v>2.3964919619324371E-2</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E469" s="4">
+        <v>-5.7438253877073464E-4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>2001</v>
       </c>
@@ -6127,8 +7574,11 @@
       <c r="D470">
         <v>1.061919933605979E-2</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E470" s="4">
+        <v>6.3218390804598013E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="1">
         <v>2</v>
@@ -6139,8 +7589,11 @@
       <c r="D471">
         <v>1.143638415946663E-2</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E471" s="4">
+        <v>3.9977155910908557E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="1">
         <v>3</v>
@@ -6151,8 +7604,11 @@
       <c r="D472">
         <v>7.0215016148210659E-3</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E472" s="4">
+        <v>2.2753128555175195E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="1">
         <v>4</v>
@@ -6163,8 +7619,11 @@
       <c r="D473">
         <v>-1.1892746437513599E-2</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E473" s="4">
+        <v>3.9727582292850006E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="1">
         <v>5</v>
@@ -6175,8 +7634,11 @@
       <c r="D474">
         <v>5.2806121385968689E-3</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E474" s="4">
+        <v>4.5223289994347216E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="1">
         <v>6</v>
@@ -6187,8 +7649,11 @@
       <c r="D475">
         <v>2.4917603553803861E-3</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E475" s="4">
+        <v>1.6882386043894915E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="1">
         <v>7</v>
@@ -6199,8 +7664,11 @@
       <c r="D476">
         <v>2.1793704417405791E-2</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E476" s="4">
+        <v>-2.8089887640448952E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="1">
         <v>8</v>
@@ -6211,8 +7679,11 @@
       <c r="D477">
         <v>7.994590449673265E-3</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E477" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="1">
         <v>9</v>
@@ -6223,8 +7694,11 @@
       <c r="D478">
         <v>3.784216798203998E-2</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E478" s="4">
+        <v>4.5070422535211652E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="1">
         <v>10</v>
@@ -6235,8 +7709,11 @@
       <c r="D479">
         <v>1.436338161451739E-2</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E479" s="4">
+        <v>-3.3651149747617737E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="1">
         <v>11</v>
@@ -6247,8 +7724,11 @@
       <c r="D480">
         <v>-1.553003484377268E-2</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E480" s="4">
+        <v>-1.6882386043892694E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="1">
         <v>12</v>
@@ -6259,8 +7739,11 @@
       <c r="D481">
         <v>-1.008326972740033E-2</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E481" s="4">
+        <v>-3.9458850056370842E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>2002</v>
       </c>
@@ -6273,8 +7756,11 @@
       <c r="D482">
         <v>1.931093715155405E-3</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E482" s="4">
+        <v>2.2637238256932868E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="1">
         <v>2</v>
@@ -6285,8 +7771,11 @@
       <c r="D483">
         <v>1.101911801740728E-2</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E483" s="4">
+        <v>3.9525691699606735E-3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="1">
         <v>3</v>
@@ -6297,8 +7786,11 @@
       <c r="D484">
         <v>-2.5896077203615059E-2</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E484" s="4">
+        <v>5.6242969628796935E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="1">
         <v>4</v>
@@ -6309,8 +7801,11 @@
       <c r="D485">
         <v>1.9996382794368901E-2</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E485" s="4">
+        <v>5.5928411633110464E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="1">
         <v>5</v>
@@ -6321,8 +7816,11 @@
       <c r="D486">
         <v>1.043700507826356E-2</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E486" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="1">
         <v>6</v>
@@ -6333,8 +7831,11 @@
       <c r="D487">
         <v>1.6532362431258298E-2</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E487" s="4">
+        <v>5.5617352614012461E-4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="1">
         <v>7</v>
@@ -6345,8 +7846,11 @@
       <c r="D488">
         <v>2.7515699570525881E-2</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E488" s="4">
+        <v>1.1117287381878782E-3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="1">
         <v>8</v>
@@ -6357,8 +7861,11 @@
       <c r="D489">
         <v>1.6194626981264001E-2</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E489" s="4">
+        <v>3.331482509716821E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="1">
         <v>9</v>
@@ -6369,8 +7876,11 @@
       <c r="D490">
         <v>3.1348684990348569E-2</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E490" s="4">
+        <v>1.6602102933038765E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="1">
         <v>10</v>
@@ -6381,8 +7891,11 @@
       <c r="D491">
         <v>-5.2707167983185154E-3</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E491" s="4">
+        <v>1.6574585635360517E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="1">
         <v>11</v>
@@ -6393,8 +7906,11 @@
       <c r="D492">
         <v>-2.0114562420203388E-2</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E492" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="1">
         <v>12</v>
@@ -6405,8 +7921,11 @@
       <c r="D493">
         <v>2.5727260965820758E-2</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E493" s="4">
+        <v>-2.2062879205736463E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>2003</v>
       </c>
@@ -6419,8 +7938,11 @@
       <c r="D494">
         <v>-8.4395440325409788E-3</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E494" s="4">
+        <v>4.4223327805417156E-3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="1">
         <v>2</v>
@@ -6431,8 +7953,11 @@
       <c r="D495">
         <v>1.9376183110043421E-2</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E495" s="4">
+        <v>7.7050082553660193E-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="1">
         <v>3</v>
@@ -6443,8 +7968,11 @@
       <c r="D496">
         <v>-1.758877402309806E-3</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E496" s="4">
+        <v>6.007646095030017E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="1">
         <v>4</v>
@@ -6455,8 +7983,11 @@
       <c r="D497">
         <v>-8.133116198207847E-4</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E497" s="4">
+        <v>-2.1715526601518986E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="1">
         <v>5</v>
@@ -6467,8 +7998,11 @@
       <c r="D498">
         <v>2.777192354393148E-2</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E498" s="4">
+        <v>-1.6322089227421843E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="1">
         <v>6</v>
@@ -6479,8 +8013,11 @@
       <c r="D499">
         <v>-5.5003073768157577E-3</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E499" s="4">
+        <v>1.0899182561308063E-3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="1">
         <v>7</v>
@@ -6491,8 +8028,11 @@
       <c r="D500">
         <v>-3.8235782351029257E-2</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E500" s="4">
+        <v>1.0887316276537717E-3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="1">
         <v>8</v>
@@ -6503,8 +8043,11 @@
       <c r="D501">
         <v>-8.9409328252454661E-4</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E501" s="4">
+        <v>3.8064165307232223E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="1">
         <v>9</v>
@@ -6515,8 +8058,11 @@
       <c r="D502">
         <v>3.0899962502852901E-2</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E502" s="4">
+        <v>3.250270855904569E-3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="1">
         <v>10</v>
@@ -6527,8 +8073,11 @@
       <c r="D503">
         <v>-1.513428047063942E-2</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E503" s="4">
+        <v>-1.0799136069113979E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="1">
         <v>11</v>
@@ -6539,8 +8088,11 @@
       <c r="D504">
         <v>-2.7295553424244298E-3</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E504" s="4">
+        <v>-2.7027027027026751E-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="1">
         <v>12</v>
@@ -6551,8 +8103,11 @@
       <c r="D505">
         <v>8.516533330426972E-3</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E505" s="4">
+        <v>-1.0840108401083404E-3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>2004</v>
       </c>
@@ -6565,8 +8120,11 @@
       <c r="D506">
         <v>6.6061663283007773E-3</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E506" s="4">
+        <v>4.8833423765597406E-3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="1">
         <v>2</v>
@@ -6577,8 +8135,11 @@
       <c r="D507">
         <v>1.0756193782013569E-2</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E507" s="4">
+        <v>5.3995680345573227E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="1">
         <v>3</v>
@@ -6589,8 +8150,11 @@
       <c r="D508">
         <v>1.121636735743918E-2</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E508" s="4">
+        <v>6.4446831364124435E-3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="1">
         <v>4</v>
@@ -6601,8 +8165,11 @@
       <c r="D509">
         <v>-3.5239150678177483E-2</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E509" s="4">
+        <v>3.2017075773744796E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="1">
         <v>5</v>
@@ -6613,8 +8180,11 @@
       <c r="D510">
         <v>-5.4141473956279534E-3</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E510" s="4">
+        <v>5.8510638297872841E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="1">
         <v>6</v>
@@ -6625,8 +8195,11 @@
       <c r="D511">
         <v>3.5705913949289339E-3</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E511" s="4">
+        <v>3.1729243786355887E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="1">
         <v>7</v>
@@ -6637,8 +8210,11 @@
       <c r="D512">
         <v>7.5583527200383561E-3</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E512" s="4">
+        <v>-1.581444385872377E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="1">
         <v>8</v>
@@ -6649,8 +8225,11 @@
       <c r="D513">
         <v>1.9439778125024471E-2</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E513" s="4">
+        <v>5.2798310454060804E-4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="1">
         <v>9</v>
@@ -6661,8 +8240,11 @@
       <c r="D514">
         <v>5.0335879607061489E-4</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E514" s="4">
+        <v>2.1108179419524475E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="1">
         <v>10</v>
@@ -6673,8 +8255,11 @@
       <c r="D515">
         <v>6.3331424851045216E-3</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E515" s="4">
+        <v>5.26592943654558E-3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="1">
         <v>11</v>
@@ -6685,8 +8270,11 @@
       <c r="D516">
         <v>-1.6025896668799309E-2</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E516" s="4">
+        <v>5.238344683080598E-4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="1">
         <v>12</v>
@@ -6697,8 +8285,11 @@
       <c r="D517">
         <v>6.806745209594834E-3</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E517" s="4">
+        <v>-3.6649214659685292E-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>2005</v>
       </c>
@@ -6711,8 +8302,11 @@
       <c r="D518">
         <v>-5.2561087839215798E-4</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E518" s="4">
+        <v>2.1019442984759884E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="1">
         <v>2</v>
@@ -6723,8 +8317,11 @@
       <c r="D519">
         <v>-1.1257602976789729E-2</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E519" s="4">
+        <v>5.7682223387520715E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="1">
         <v>3</v>
@@ -6735,8 +8332,11 @@
       <c r="D520">
         <v>-4.323084540047116E-3</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E520" s="4">
+        <v>7.8206465067778286E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="1">
         <v>4</v>
@@ -6747,8 +8347,11 @@
       <c r="D521">
         <v>1.5755077270980241E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E521" s="4">
+        <v>6.7252974650799935E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="1">
         <v>5</v>
@@ -6759,8 +8362,11 @@
       <c r="D522">
         <v>9.7010049576900393E-3</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E522" s="4">
+        <v>-1.0277492291880241E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="1">
         <v>6</v>
@@ -6771,8 +8377,11 @@
       <c r="D523">
         <v>4.6967789157768757E-3</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E523" s="4">
+        <v>5.1440329218110925E-4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="1">
         <v>7</v>
@@ -6783,8 +8392,11 @@
       <c r="D524">
         <v>-1.5611167617998691E-2</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E524" s="4">
+        <v>4.6272493573265017E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="1">
         <v>8</v>
@@ -6795,8 +8407,11 @@
       <c r="D525">
         <v>1.36627378625642E-2</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E525" s="4">
+        <v>5.1177072671442225E-3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="1">
         <v>9</v>
@@ -6807,8 +8422,11 @@
       <c r="D526">
         <v>-1.0655528702391139E-2</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E526" s="4">
+        <v>1.2219959266802416E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="1">
         <v>10</v>
@@ -6819,8 +8437,11 @@
       <c r="D527">
         <v>-8.3925433750608666E-3</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E527" s="4">
+        <v>2.012072434607548E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="1">
         <v>11</v>
@@ -6831,8 +8452,11 @@
       <c r="D528">
         <v>4.9772173709181442E-3</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E528" s="4">
+        <v>-8.0321285140562138E-3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="1">
         <v>12</v>
@@ -6843,8 +8467,11 @@
       <c r="D529">
         <v>6.7048187402348877E-3</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E529" s="4">
+        <v>-4.0485829959513442E-3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>2006</v>
       </c>
@@ -6857,8 +8484,11 @@
       <c r="D530">
         <v>-1.6314975616913889E-3</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E530" s="4">
+        <v>7.6219512195121464E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="1">
         <v>2</v>
@@ -6869,8 +8499,11 @@
       <c r="D531">
         <v>-3.0154357063749632E-3</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E531" s="4">
+        <v>2.0171457387794245E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="1">
         <v>3</v>
@@ -6881,8 +8514,11 @@
       <c r="D532">
         <v>-4.8226583560485948E-3</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E532" s="4">
+        <v>5.5359838953197293E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="1">
         <v>4</v>
@@ -6893,8 +8529,11 @@
       <c r="D533">
         <v>-7.2450237139051071E-4</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E533" s="4">
+        <v>8.5085085085083723E-3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="1">
         <v>5</v>
@@ -6905,8 +8544,11 @@
       <c r="D534">
         <v>-7.473235312078012E-4</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E534" s="4">
+        <v>4.9627791563275903E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="1">
         <v>6</v>
@@ -6917,8 +8559,11 @@
       <c r="D535">
         <v>1.4428355886029511E-3</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E535" s="4">
+        <v>1.9753086419753707E-3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="1">
         <v>7</v>
@@ -6929,8 +8574,11 @@
       <c r="D536">
         <v>1.318918330621871E-2</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E536" s="4">
+        <v>2.9571217348447476E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="1">
         <v>8</v>
@@ -6941,8 +8589,11 @@
       <c r="D537">
         <v>1.214600525954606E-2</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E537" s="4">
+        <v>1.9656019656020263E-3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="1">
         <v>9</v>
@@ -6953,8 +8604,11 @@
       <c r="D538">
         <v>8.9733014817912973E-3</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E538" s="4">
+        <v>-4.9043648847474364E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="1">
         <v>10</v>
@@ -6965,8 +8619,11 @@
       <c r="D539">
         <v>4.7405947151890554E-3</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E539" s="4">
+        <v>-5.4213898472152966E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="1">
         <v>11</v>
@@ -6977,8 +8634,11 @@
       <c r="D540">
         <v>9.0784602243902598E-3</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E540" s="4">
+        <v>-1.4866204162538033E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="1">
         <v>12</v>
@@ -6989,8 +8649,11 @@
       <c r="D541">
         <v>-7.8587934408354907E-3</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E541" s="4">
+        <v>1.4888337468983437E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>2007</v>
       </c>
@@ -7003,8 +8666,11 @@
       <c r="D542">
         <v>-1.078956950234808E-3</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E542" s="4">
+        <v>3.0525272547075044E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="1">
         <v>2</v>
@@ -7015,8 +8681,11 @@
       <c r="D543">
         <v>1.86307297686647E-2</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E543" s="4">
+        <v>5.3503675598767231E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="1">
         <v>3</v>
@@ -7027,8 +8696,11 @@
       <c r="D544">
         <v>2.655646778943946E-3</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E544" s="4">
+        <v>9.1056958510853381E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="1">
         <v>4</v>
@@ -7039,8 +8711,11 @@
       <c r="D545">
         <v>5.467766473321342E-3</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E545" s="4">
+        <v>6.4961626865089883E-3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="1">
         <v>5</v>
@@ -7051,8 +8726,11 @@
       <c r="D546">
         <v>-1.0993209074542079E-2</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E546" s="4">
+        <v>6.110718674704696E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="1">
         <v>6</v>
@@ -7063,8 +8741,11 @@
       <c r="D547">
         <v>1.3466446102770649E-3</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E547" s="4">
+        <v>1.9379751766057662E-3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="1">
         <v>7</v>
@@ -7075,8 +8756,11 @@
       <c r="D548">
         <v>1.839342104729429E-2</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E548" s="4">
+        <v>-2.543772078021922E-4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="1">
         <v>8</v>
@@ -7087,8 +8771,11 @@
       <c r="D549">
         <v>1.7679171409124811E-2</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E549" s="4">
+        <v>-1.8339022270870142E-3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="1">
         <v>9</v>
@@ -7099,8 +8786,11 @@
       <c r="D550">
         <v>4.5707005792603736E-3</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E550" s="4">
+        <v>2.755907405358915E-3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="1">
         <v>10</v>
@@ -7111,8 +8801,11 @@
       <c r="D551">
         <v>6.3364484352455954E-3</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E551" s="4">
+        <v>2.1391913281212371E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="1">
         <v>11</v>
@@ -7123,8 +8816,11 @@
       <c r="D552">
         <v>3.6997334438881709E-2</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E552" s="4">
+        <v>5.9396178734156813E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="1">
         <v>12</v>
@@ -7135,8 +8831,11 @@
       <c r="D553">
         <v>1.304219698155128E-3</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E553" s="4">
+        <v>-6.7086312964781403E-4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>2008</v>
       </c>
@@ -7149,8 +8848,11 @@
       <c r="D554">
         <v>3.1609968088855279E-2</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E554" s="4">
+        <v>4.9705764726046819E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="1">
         <v>2</v>
@@ -7161,8 +8863,11 @@
       <c r="D555">
         <v>1.810184284798888E-2</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E555" s="4">
+        <v>2.9041121849535667E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="1">
         <v>3</v>
@@ -7173,8 +8878,11 @@
       <c r="D556">
         <v>4.3327430654318856E-3</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E556" s="4">
+        <v>8.6682129309896272E-3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="1">
         <v>4</v>
@@ -7185,8 +8893,11 @@
       <c r="D557">
         <v>-2.2955886680306389E-2</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E557" s="4">
+        <v>6.0647783897194163E-3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="1">
         <v>5</v>
@@ -7197,8 +8908,11 @@
       <c r="D558">
         <v>-1.4782802830658351E-2</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E558" s="4">
+        <v>8.4208860317562806E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="1">
         <v>6</v>
@@ -7209,8 +8923,11 @@
       <c r="D559">
         <v>6.258379454140651E-3</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E559" s="4">
+        <v>1.0076996934894167E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="1">
         <v>7</v>
@@ -7221,8 +8938,11 @@
       <c r="D560">
         <v>6.6854438990187788E-3</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E560" s="4">
+        <v>5.2510111281218741E-3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="1">
         <v>8</v>
@@ -7233,8 +8953,11 @@
       <c r="D561">
         <v>9.4227500723845833E-3</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E561" s="4">
+        <v>-3.9915622556417896E-3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="1">
         <v>9</v>
@@ -7245,8 +8968,11 @@
       <c r="D562">
         <v>8.4484266129761648E-3</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E562" s="4">
+        <v>-1.3830185406644713E-3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="1">
         <v>10</v>
@@ -7257,8 +8983,11 @@
       <c r="D563">
         <v>9.8671862328423253E-3</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E563" s="4">
+        <v>-1.010133328457874E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="1">
         <v>11</v>
@@ -7269,8 +8998,11 @@
       <c r="D564">
         <v>4.7242765564749892E-2</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E564" s="4">
+        <v>-1.9152895328595876E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="1">
         <v>12</v>
@@ -7281,8 +9013,11 @@
       <c r="D565">
         <v>1.87612948782752E-2</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E565" s="4">
+        <v>-1.0342473814287434E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>2009</v>
       </c>
@@ -7295,8 +9030,11 @@
       <c r="D566">
         <v>-1.3593771446548121E-2</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E566" s="4">
+        <v>4.3524173754210249E-3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="1">
         <v>2</v>
@@ -7307,8 +9045,11 @@
       <c r="D567">
         <v>-5.6026077450290184E-3</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E567" s="4">
+        <v>4.9729330359047363E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="1">
         <v>3</v>
@@ -7319,8 +9060,11 @@
       <c r="D568">
         <v>1.62574402216847E-2</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E568" s="4">
+        <v>2.4317484554154944E-3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="1">
         <v>4</v>
@@ -7331,8 +9075,11 @@
       <c r="D569">
         <v>-1.5048280805443969E-2</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E569" s="4">
+        <v>2.4963682777880969E-3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="1">
         <v>5</v>
@@ -7343,8 +9090,11 @@
       <c r="D570">
         <v>-1.401821683325459E-2</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E570" s="4">
+        <v>2.8887638341774657E-3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="1">
         <v>6</v>
@@ -7355,8 +9105,11 @@
       <c r="D571">
         <v>-6.5496193668648046E-3</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E571" s="4">
+        <v>8.589892263953347E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="1">
         <v>7</v>
@@ -7367,8 +9120,11 @@
       <c r="D572">
         <v>2.5215566156048738E-3</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E572" s="4">
+        <v>-1.5855869221532704E-3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="1">
         <v>8</v>
@@ -7379,8 +9135,11 @@
       <c r="D573">
         <v>8.7954504690229956E-3</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E573" s="4">
+        <v>2.2428500448106181E-3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="1">
         <v>9</v>
@@ -7391,8 +9150,11 @@
       <c r="D574">
         <v>5.7220806267236669E-3</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E574" s="4">
+        <v>6.2548069349599444E-4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="1">
         <v>10</v>
@@ -7403,8 +9165,11 @@
       <c r="D575">
         <v>1.896892761230362E-3</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E575" s="4">
+        <v>9.6310118581843795E-4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="1">
         <v>11</v>
@@ -7415,8 +9180,11 @@
       <c r="D576">
         <v>1.6856643284085499E-2</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E576" s="4">
+        <v>7.0775336876738315E-4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="1">
         <v>12</v>
@@ -7427,8 +9195,11 @@
       <c r="D577">
         <v>-2.852784352153883E-2</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E577" s="4">
+        <v>-1.7611981694632961E-3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>2010</v>
       </c>
@@ -7441,8 +9212,11 @@
       <c r="D578">
         <v>2.0293449630245819E-2</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E578" s="4">
+        <v>3.4174735701484327E-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="1">
         <v>2</v>
@@ -7453,8 +9227,11 @@
       <c r="D579">
         <v>4.1055900080625768E-3</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E579" s="4">
+        <v>2.4920738207656612E-4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="1">
         <v>3</v>
@@ -7465,8 +9242,11 @@
       <c r="D580">
         <v>-8.6639370782888199E-3</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E580" s="4">
+        <v>4.1062835365712758E-3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="1">
         <v>4</v>
@@ -7477,8 +9257,11 @@
       <c r="D581">
         <v>7.7838924246893797E-3</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E581" s="4">
+        <v>1.736884910697345E-3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="1">
         <v>5</v>
@@ -7489,8 +9272,11 @@
       <c r="D582">
         <v>1.8127635139493239E-2</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E582" s="4">
+        <v>7.75197354237811E-4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="1">
         <v>6</v>
@@ -7501,8 +9287,11 @@
       <c r="D583">
         <v>1.5817304223201128E-2</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E583" s="4">
+        <v>-9.7626708467390966E-4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="1">
         <v>7</v>
@@ -7513,8 +9302,11 @@
       <c r="D584">
         <v>1.055916497006735E-2</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E584" s="4">
+        <v>2.1104305737162932E-4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="1">
         <v>8</v>
@@ -7525,8 +9317,11 @@
       <c r="D585">
         <v>1.3670487646626969E-2</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E585" s="4">
+        <v>1.3806642784079948E-3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="1">
         <v>9</v>
@@ -7537,8 +9332,11 @@
       <c r="D586">
         <v>4.1123848384067973E-3</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E586" s="4">
+        <v>5.8173623071566816E-4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="1">
         <v>10</v>
@@ -7549,8 +9347,11 @@
       <c r="D587">
         <v>5.8018659454228422E-3</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E587" s="4">
+        <v>1.2451988884769616E-3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="1">
         <v>11</v>
@@ -7561,8 +9362,11 @@
       <c r="D588">
         <v>-1.322478554553985E-2</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E588" s="4">
+        <v>4.206464238194485E-4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="1">
         <v>12</v>
@@ -7573,8 +9377,11 @@
       <c r="D589">
         <v>-2.2910840547918299E-2</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E589" s="4">
+        <v>1.718440789203024E-3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>2011</v>
       </c>
@@ -7587,8 +9394,11 @@
       <c r="D590">
         <v>4.7992979800674674E-3</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E590" s="4">
+        <v>4.7632300539741657E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="1">
         <v>2</v>
@@ -7599,8 +9409,11 @@
       <c r="D591">
         <v>-7.453067537669872E-3</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E591" s="4">
+        <v>4.9313650254514396E-3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="1">
         <v>3</v>
@@ -7611,8 +9424,11 @@
       <c r="D592">
         <v>-3.0505669194097682E-3</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E592" s="4">
+        <v>9.7510720305094001E-3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="1">
         <v>4</v>
@@ -7623,8 +9439,11 @@
       <c r="D593">
         <v>1.523366730806471E-2</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E593" s="4">
+        <v>6.4394295354570641E-3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="1">
         <v>5</v>
@@ -7635,8 +9454,11 @@
       <c r="D594">
         <v>1.5432272977261E-2</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E594" s="4">
+        <v>4.7041875272335609E-3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="1">
         <v>6</v>
@@ -7647,8 +9469,11 @@
       <c r="D595">
         <v>-2.35230121547022E-3</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E595" s="4">
+        <v>-1.0709670566992902E-3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="1">
         <v>7</v>
@@ -7659,8 +9484,11 @@
       <c r="D596">
         <v>2.201514518549056E-2</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E596" s="4">
+        <v>8.8604566679362229E-4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="1">
         <v>8</v>
@@ -7671,8 +9499,11 @@
       <c r="D597">
         <v>1.819584767167385E-2</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E597" s="4">
+        <v>2.7575889023645495E-3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="1">
         <v>9</v>
@@ -7683,8 +9514,11 @@
       <c r="D598">
         <v>7.6636530587892242E-4</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E598" s="4">
+        <v>1.5184621156945077E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="1">
         <v>10</v>
@@ -7695,8 +9529,11 @@
       <c r="D599">
         <v>-5.0354253968476655E-4</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E599" s="4">
+        <v>-2.0626826333582926E-3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="1">
         <v>11</v>
@@ -7707,8 +9544,11 @@
       <c r="D600">
         <v>2.221988552325646E-3</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E600" s="4">
+        <v>-8.4356133044194426E-4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="1">
         <v>12</v>
@@ -7719,8 +9559,11 @@
       <c r="D601">
         <v>7.0973119043926721E-3</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E601" s="4">
+        <v>-2.4665163771382392E-3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>2012</v>
       </c>
@@ -7733,8 +9576,11 @@
       <c r="D602">
         <v>6.9564422297938473E-3</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E602" s="4">
+        <v>4.4001914282676413E-3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="1">
         <v>2</v>
@@ -7745,8 +9591,11 @@
       <c r="D603">
         <v>-7.5112010154189963E-3</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E603" s="4">
+        <v>4.4029735512762791E-3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="1">
         <v>3</v>
@@ -7757,8 +9606,11 @@
       <c r="D604">
         <v>-7.086815735807243E-3</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E604" s="4">
+        <v>7.5945586239309915E-3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="1">
         <v>4</v>
@@ -7769,8 +9621,11 @@
       <c r="D605">
         <v>1.2083582055505439E-2</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E605" s="4">
+        <v>3.0210295040804525E-3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="1">
         <v>5</v>
@@ -7781,8 +9636,11 @@
       <c r="D606">
         <v>7.6438331473771253E-3</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E606" s="4">
+        <v>-1.1734793663211729E-3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="1">
         <v>6</v>
@@ -7793,8 +9651,11 @@
       <c r="D607">
         <v>-1.87731385657458E-3</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E607" s="4">
+        <v>-1.4663968844504938E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="1">
         <v>7</v>
@@ -7805,8 +9666,11 @@
       <c r="D608">
         <v>6.4577902692567763E-3</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E608" s="4">
+        <v>-1.6297858618254946E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="1">
         <v>8</v>
@@ -7817,8 +9681,11 @@
       <c r="D609">
         <v>1.0235884980444631E-3</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E609" s="4">
+        <v>5.5651581814371021E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="1">
         <v>9</v>
@@ -7829,8 +9696,11 @@
       <c r="D610">
         <v>-1.057648517623085E-3</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E610" s="4">
+        <v>4.4622122676112319E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="1">
         <v>10</v>
@@ -7841,8 +9711,11 @@
       <c r="D611">
         <v>-4.2615478068359532E-3</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E611" s="4">
+        <v>-3.8892514055322014E-4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="1">
         <v>11</v>
@@ -7853,8 +9726,11 @@
       <c r="D612">
         <v>5.9612595387401358E-3</v>
       </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E612" s="4">
+        <v>-4.73808669488196E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="1">
         <v>12</v>
@@ -7865,8 +9741,11 @@
       <c r="D613">
         <v>-5.0489393764884694E-3</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E613" s="4">
+        <v>-2.6930644902072309E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>2013</v>
       </c>
@@ -7879,8 +9758,11 @@
       <c r="D614">
         <v>-7.1383424117589462E-3</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E614" s="4">
+        <v>2.957304192926058E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="1">
         <v>2</v>
@@ -7891,8 +9773,11 @@
       <c r="D615">
         <v>6.6772941025669188E-3</v>
       </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E615" s="4">
+        <v>8.1900295292687275E-3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="1">
         <v>3</v>
@@ -7903,8 +9788,11 @@
       <c r="D616">
         <v>6.6695465499839589E-4</v>
       </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E616" s="4">
+        <v>2.6145085843749527E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="1">
         <v>4</v>
@@ -7915,8 +9803,11 @@
       <c r="D617">
         <v>4.8337699715642838E-3</v>
       </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E617" s="4">
+        <v>-1.0396394770870732E-3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="1">
         <v>5</v>
@@ -7927,8 +9818,11 @@
       <c r="D618">
         <v>-1.6553565846989641E-2</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E618" s="4">
+        <v>1.7804077735872337E-3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="1">
         <v>6</v>
@@ -7939,8 +9833,11 @@
       <c r="D619">
         <v>-1.7279680548228728E-2</v>
       </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E619" s="4">
+        <v>2.3997080855995279E-3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="1">
         <v>7</v>
@@ -7951,8 +9848,11 @@
       <c r="D620">
         <v>2.638997881824087E-3</v>
       </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E620" s="4">
+        <v>3.9399753323299258E-4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="1">
         <v>8</v>
@@ -7963,8 +9863,11 @@
       <c r="D621">
         <v>-9.772737318501229E-3</v>
       </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E621" s="4">
+        <v>1.2029315570472043E-3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="1">
         <v>9</v>
@@ -7975,8 +9878,11 @@
       <c r="D622">
         <v>1.3074658738252309E-2</v>
       </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E622" s="4">
+        <v>1.1630044852635191E-3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="1">
         <v>10</v>
@@ -7987,8 +9893,11 @@
       <c r="D623">
         <v>4.5928828211780504E-3</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E623" s="4">
+        <v>-2.5752832598047171E-3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="1">
         <v>11</v>
@@ -7999,8 +9908,11 @@
       <c r="D624">
         <v>-1.871293037605617E-3</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E624" s="4">
+        <v>-2.042424190523473E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="1">
         <v>12</v>
@@ -8011,8 +9923,11 @@
       <c r="D625">
         <v>-1.682334705836849E-2</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E625" s="4">
+        <v>-8.5811497882559706E-5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>2014</v>
       </c>
@@ -8025,8 +9940,11 @@
       <c r="D626">
         <v>1.3875521748589361E-2</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E626" s="4">
+        <v>3.7202476732360878E-3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="1">
         <v>2</v>
@@ -8037,8 +9955,11 @@
       <c r="D627">
         <v>2.3833673539657791E-4</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E627" s="4">
+        <v>3.6979086509687509E-3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="1">
         <v>3</v>
@@ -8049,8 +9970,11 @@
       <c r="D628">
         <v>-9.1033829100739764E-3</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E628" s="4">
+        <v>6.4400441262282282E-3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="1">
         <v>4</v>
@@ -8061,8 +9985,11 @@
       <c r="D629">
         <v>3.320287588363936E-3</v>
       </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E629" s="4">
+        <v>3.2967544531576909E-3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="1">
         <v>5</v>
@@ -8073,8 +10000,11 @@
       <c r="D630">
         <v>8.4964221715060802E-3</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E630" s="4">
+        <v>3.4926098400485106E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="1">
         <v>6</v>
@@ -8085,8 +10015,11 @@
       <c r="D631">
         <v>-2.4077178056117888E-3</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E631" s="4">
+        <v>1.8621269440941557E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="1">
         <v>7</v>
@@ -8097,8 +10030,11 @@
       <c r="D632">
         <v>-4.9980965854038734E-3</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E632" s="4">
+        <v>-3.901939641608454E-4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="1">
         <v>8</v>
@@ -8109,8 +10045,11 @@
       <c r="D633">
         <v>7.5158981245190409E-3</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E633" s="4">
+        <v>-1.6705141657922251E-3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="1">
         <v>9</v>
@@ -8121,8 +10060,11 @@
       <c r="D634">
         <v>-5.6086700061860981E-3</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E634" s="4">
+        <v>7.5256882431085081E-4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="1">
         <v>10</v>
@@ -8133,8 +10075,11 @@
       <c r="D635">
         <v>8.2079817940491906E-3</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E635" s="4">
+        <v>-2.5122778125539202E-3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="1">
         <v>11</v>
@@ -8145,8 +10090,11 @@
       <c r="D636">
         <v>8.2702787406792582E-3</v>
       </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E636" s="4">
+        <v>-5.3994179410612464E-3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="1">
         <v>12</v>
@@ -8157,8 +10105,11 @@
       <c r="D637">
         <v>-5.8760647624732888E-3</v>
       </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E637" s="4">
+        <v>-5.6701009100109667E-3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>2015</v>
       </c>
@@ -8171,8 +10122,11 @@
       <c r="D638">
         <v>2.499605682568164E-2</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E638" s="4">
+        <v>-4.7058923734732971E-3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="1">
         <v>2</v>
@@ -8183,8 +10137,11 @@
       <c r="D639">
         <v>-1.575957325051839E-2</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E639" s="4">
+        <v>4.3430449237722435E-3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="1">
         <v>3</v>
@@ -8195,8 +10152,11 @@
       <c r="D640">
         <v>7.2828266702869206E-3</v>
       </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E640" s="4">
+        <v>5.9517216110973603E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="1">
         <v>4</v>
@@ -8207,8 +10167,11 @@
       <c r="D641">
         <v>-1.7756595016691511E-3</v>
       </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E641" s="4">
+        <v>2.0328732545877859E-3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="1">
         <v>5</v>
@@ -8219,8 +10182,11 @@
       <c r="D642">
         <v>-1.7288510651410341E-3</v>
       </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E642" s="4">
+        <v>5.0972320254947245E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="1">
         <v>6</v>
@@ -8231,8 +10197,11 @@
       <c r="D643">
         <v>-4.9644782974413507E-3</v>
       </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E643" s="4">
+        <v>3.5028699985282241E-3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="1">
         <v>7</v>
@@ -8243,8 +10212,11 @@
       <c r="D644">
         <v>5.4740896524782126E-3</v>
       </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E644" s="4">
+        <v>6.7047159295618997E-5</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="1">
         <v>8</v>
@@ -8255,8 +10227,11 @@
       <c r="D645">
         <v>1.3371823746438009E-3</v>
       </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E645" s="4">
+        <v>-1.4162762828194841E-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="1">
         <v>9</v>
@@ -8267,8 +10242,11 @@
       <c r="D646">
         <v>9.4267669640318002E-3</v>
       </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E646" s="4">
+        <v>-1.5567565753034085E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="1">
         <v>10</v>
@@ -8279,8 +10257,11 @@
       <c r="D647">
         <v>-5.7778363125390239E-3</v>
       </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E647" s="4">
+        <v>-4.4968375044651676E-4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="1">
         <v>11</v>
@@ -8291,8 +10272,11 @@
       <c r="D648">
         <v>-5.0468376679232941E-3</v>
       </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E648" s="4">
+        <v>-2.1106803790814643E-3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="1">
         <v>12</v>
@@ -8303,8 +10287,11 @@
       <c r="D649">
         <v>-3.6087852247833059E-3</v>
       </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E649" s="4">
+        <v>-3.4170964371187385E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>2016</v>
       </c>
@@ -8317,8 +10304,11 @@
       <c r="D650">
         <v>2.4164799806918359E-2</v>
       </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E650" s="4">
+        <v>1.6531022090686687E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="1">
         <v>2</v>
@@ -8329,8 +10319,11 @@
       <c r="D651">
         <v>6.7048956689481831E-3</v>
       </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E651" s="4">
+        <v>8.2307653345492504E-4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="1">
         <v>3</v>
@@ -8341,8 +10334,11 @@
       <c r="D652">
         <v>1.612805094659539E-3</v>
       </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E652" s="4">
+        <v>4.3060001433927741E-3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="1">
         <v>4</v>
@@ -8353,8 +10349,11 @@
       <c r="D653">
         <v>-2.3715240486425122E-3</v>
       </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E653" s="4">
+        <v>4.7410679791040078E-3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="1">
         <v>5</v>
@@ -8365,8 +10364,11 @@
       <c r="D654">
         <v>-3.181435116436981E-3</v>
       </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E654" s="4">
+        <v>4.0457909981150841E-3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="1">
         <v>6</v>
@@ -8377,8 +10379,11 @@
       <c r="D655">
         <v>1.759558373103175E-2</v>
       </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E655" s="4">
+        <v>3.2843661672818936E-3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="1">
         <v>7</v>
@@ -8389,8 +10394,11 @@
       <c r="D656">
         <v>-1.1458165713877861E-4</v>
       </c>
-    </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E656" s="4">
+        <v>-1.618136404749948E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="1">
         <v>8</v>
@@ -8401,8 +10409,11 @@
       <c r="D657">
         <v>-6.1321905384743927E-3</v>
       </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E657" s="4">
+        <v>9.1843010788439372E-4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="1">
         <v>9</v>
@@ -8413,8 +10424,11 @@
       <c r="D658">
         <v>3.407820332926683E-3</v>
       </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E658" s="4">
+        <v>2.4039958646289161E-3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="1">
         <v>10</v>
@@ -8425,8 +10439,11 @@
       <c r="D659">
         <v>-7.1461517597747456E-3</v>
       </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E659" s="4">
+        <v>1.2467485130143174E-3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="1">
         <v>11</v>
@@ -8437,8 +10454,11 @@
       <c r="D660">
         <v>-2.357360484626618E-2</v>
       </c>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E660" s="4">
+        <v>-1.5554608673349346E-3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="1">
         <v>12</v>
@@ -8449,8 +10469,11 @@
       <c r="D661">
         <v>-3.1213278029216872E-3</v>
       </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E661" s="4">
+        <v>3.2732139231739232E-4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>2017</v>
       </c>
@@ -8463,8 +10486,11 @@
       <c r="D662">
         <v>3.2828035523468271E-3</v>
       </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E662" s="4">
+        <v>5.8277278902547636E-3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="1">
         <v>2</v>
@@ -8475,8 +10501,11 @@
       <c r="D663">
         <v>2.1516330661707512E-3</v>
       </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E663" s="4">
+        <v>3.1461173864164582E-3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="1">
         <v>3</v>
@@ -8487,8 +10516,11 @@
       <c r="D664">
         <v>-1.5709719001757549E-4</v>
       </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E664" s="4">
+        <v>8.1279787194721287E-4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="1">
         <v>4</v>
@@ -8499,8 +10531,11 @@
       <c r="D665">
         <v>7.8719378008473093E-3</v>
       </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E665" s="4">
+        <v>2.965533365326678E-3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="1">
         <v>5</v>
@@ -8511,8 +10546,11 @@
       <c r="D666">
         <v>4.3210910851531371E-3</v>
       </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E666" s="4">
+        <v>8.5472182689638743E-4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="1">
         <v>6</v>
@@ -8523,8 +10561,11 @@
       <c r="D667">
         <v>-4.9700255394971894E-3</v>
       </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E667" s="4">
+        <v>9.0711101486107282E-4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="1">
         <v>7</v>
@@ -8535,8 +10576,11 @@
       <c r="D668">
         <v>4.1708250796054936E-3</v>
       </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E668" s="4">
+        <v>-6.8992263885203631E-4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="1">
         <v>8</v>
@@ -8547,8 +10591,11 @@
       <c r="D669">
         <v>7.4787665709197884E-3</v>
       </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E669" s="4">
+        <v>2.9944522971085963E-3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="1">
         <v>9</v>
@@ -8559,8 +10606,11 @@
       <c r="D670">
         <v>-9.4988377247094743E-3</v>
       </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E670" s="4">
+        <v>5.2949058932301174E-3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="1">
         <v>10</v>
@@ -8571,8 +10621,11 @@
       <c r="D671">
         <v>-2.418855404658588E-3</v>
       </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E671" s="4">
+        <v>-6.3204210372769243E-4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="1">
         <v>11</v>
@@ -8583,8 +10636,11 @@
       <c r="D672">
         <v>-4.463878248025359E-3</v>
       </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E672" s="4">
+        <v>2.4324685907517463E-5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="1">
         <v>12</v>
@@ -8595,8 +10651,11 @@
       <c r="D673">
         <v>-1.151681248838438E-3</v>
       </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E673" s="4">
+        <v>-5.8783227726233456E-4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>2018</v>
       </c>
@@ -8609,8 +10668,11 @@
       <c r="D674">
         <v>-1.288196450765886E-2</v>
       </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E674" s="4">
+        <v>5.4477454527752656E-3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="1">
         <v>2</v>
@@ -8621,8 +10683,11 @@
       <c r="D675">
         <v>-4.4879303614141454E-3</v>
       </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E675" s="4">
+        <v>4.5346899748657243E-3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="1">
         <v>3</v>
@@ -8633,8 +10698,11 @@
       <c r="D676">
         <v>6.2861093287170447E-3</v>
       </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E676" s="4">
+        <v>2.2611259041491749E-3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="1">
         <v>4</v>
@@ -8645,8 +10713,11 @@
       <c r="D677">
         <v>-8.3490986274150185E-3</v>
       </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E677" s="4">
+        <v>3.9750915633489647E-3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="1">
         <v>5</v>
@@ -8657,8 +10728,11 @@
       <c r="D678">
         <v>7.1826531760659524E-3</v>
       </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E678" s="4">
+        <v>4.1589169254347969E-3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="1">
         <v>6</v>
@@ -8669,8 +10743,11 @@
       <c r="D679">
         <v>-1.2382598322369071E-4</v>
       </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E679" s="4">
+        <v>1.5938757015439009E-3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="1">
         <v>7</v>
@@ -8681,8 +10758,11 @@
       <c r="D680">
         <v>-3.1483772006862909E-3</v>
       </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E680" s="4">
+        <v>6.7463262285238912E-5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="1">
         <v>8</v>
@@ -8693,8 +10773,11 @@
       <c r="D681">
         <v>6.7989870619479748E-3</v>
       </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E681" s="4">
+        <v>5.5554232835719475E-4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="1">
         <v>9</v>
@@ -8705,8 +10788,11 @@
       <c r="D682">
         <v>-7.8120888413983893E-3</v>
       </c>
-    </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E682" s="4">
+        <v>1.1620251758901468E-3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="1">
         <v>10</v>
@@ -8717,9 +10803,62 @@
       <c r="D683">
         <v>3.9343990557969876E-3</v>
       </c>
+      <c r="E683" s="4">
+        <v>1.766763455725906E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A266:A277"/>
+    <mergeCell ref="A278:A289"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A302:A313"/>
+    <mergeCell ref="A314:A325"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="A338:A349"/>
+    <mergeCell ref="A350:A361"/>
+    <mergeCell ref="A362:A373"/>
+    <mergeCell ref="A374:A385"/>
+    <mergeCell ref="A386:A397"/>
+    <mergeCell ref="A398:A409"/>
+    <mergeCell ref="A410:A421"/>
+    <mergeCell ref="A422:A433"/>
+    <mergeCell ref="A434:A445"/>
+    <mergeCell ref="A446:A457"/>
+    <mergeCell ref="A458:A469"/>
+    <mergeCell ref="A470:A481"/>
+    <mergeCell ref="A482:A493"/>
+    <mergeCell ref="A494:A505"/>
+    <mergeCell ref="A506:A517"/>
+    <mergeCell ref="A518:A529"/>
+    <mergeCell ref="A530:A541"/>
+    <mergeCell ref="A542:A553"/>
+    <mergeCell ref="A554:A565"/>
+    <mergeCell ref="A566:A577"/>
+    <mergeCell ref="A578:A589"/>
+    <mergeCell ref="A590:A601"/>
     <mergeCell ref="A662:A673"/>
     <mergeCell ref="A674:A683"/>
     <mergeCell ref="A602:A613"/>
@@ -8727,56 +10866,6 @@
     <mergeCell ref="A626:A637"/>
     <mergeCell ref="A638:A649"/>
     <mergeCell ref="A650:A661"/>
-    <mergeCell ref="A542:A553"/>
-    <mergeCell ref="A554:A565"/>
-    <mergeCell ref="A566:A577"/>
-    <mergeCell ref="A578:A589"/>
-    <mergeCell ref="A590:A601"/>
-    <mergeCell ref="A482:A493"/>
-    <mergeCell ref="A494:A505"/>
-    <mergeCell ref="A506:A517"/>
-    <mergeCell ref="A518:A529"/>
-    <mergeCell ref="A530:A541"/>
-    <mergeCell ref="A422:A433"/>
-    <mergeCell ref="A434:A445"/>
-    <mergeCell ref="A446:A457"/>
-    <mergeCell ref="A458:A469"/>
-    <mergeCell ref="A470:A481"/>
-    <mergeCell ref="A362:A373"/>
-    <mergeCell ref="A374:A385"/>
-    <mergeCell ref="A386:A397"/>
-    <mergeCell ref="A398:A409"/>
-    <mergeCell ref="A410:A421"/>
-    <mergeCell ref="A302:A313"/>
-    <mergeCell ref="A314:A325"/>
-    <mergeCell ref="A326:A337"/>
-    <mergeCell ref="A338:A349"/>
-    <mergeCell ref="A350:A361"/>
-    <mergeCell ref="A242:A253"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A266:A277"/>
-    <mergeCell ref="A278:A289"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="A98:A109"/>
-    <mergeCell ref="A110:A121"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
